--- a/dynamic_context_server/ref/foundation/climate/venera.xlsx
+++ b/dynamic_context_server/ref/foundation/climate/venera.xlsx
@@ -12,25 +12,25 @@
     <sheet name="adiabatic" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="a" localSheetId="2">adiabatic!$D$10</definedName>
+    <definedName name="a" localSheetId="2">adiabatic!$H$11</definedName>
     <definedName name="a">Sheet2!$D$10</definedName>
-    <definedName name="b" localSheetId="2">adiabatic!$D$11</definedName>
+    <definedName name="b" localSheetId="2">adiabatic!$H$12</definedName>
     <definedName name="b">Sheet2!$D$11</definedName>
-    <definedName name="cc" localSheetId="2">adiabatic!$D$12</definedName>
+    <definedName name="cc" localSheetId="2">adiabatic!$H$13</definedName>
     <definedName name="cc">Sheet2!$D$12</definedName>
-    <definedName name="f" localSheetId="2">adiabatic!$D$9</definedName>
+    <definedName name="f" localSheetId="2">adiabatic!$H$10</definedName>
     <definedName name="f">Sheet2!$D$9</definedName>
-    <definedName name="g" localSheetId="2">adiabatic!$D$7</definedName>
+    <definedName name="g" localSheetId="2">adiabatic!$H$8</definedName>
     <definedName name="g">Sheet2!$D$7</definedName>
-    <definedName name="k" localSheetId="2">adiabatic!$D$8</definedName>
+    <definedName name="k" localSheetId="2">adiabatic!$H$9</definedName>
     <definedName name="k">Sheet2!$D$8</definedName>
-    <definedName name="L" localSheetId="2">adiabatic!$D$4</definedName>
+    <definedName name="L" localSheetId="2">adiabatic!$H$5</definedName>
     <definedName name="L">Sheet2!$D$4</definedName>
-    <definedName name="MW" localSheetId="2">adiabatic!$D$6</definedName>
+    <definedName name="MW" localSheetId="2">adiabatic!$H$7</definedName>
     <definedName name="MW">Sheet2!$D$6</definedName>
-    <definedName name="R_gas" localSheetId="2">adiabatic!$D$5</definedName>
+    <definedName name="R_gas" localSheetId="2">adiabatic!$H$6</definedName>
     <definedName name="R_gas">Sheet2!$D$5</definedName>
-    <definedName name="u" localSheetId="2">adiabatic!$D$3</definedName>
+    <definedName name="u" localSheetId="2">adiabatic!$H$4</definedName>
     <definedName name="u">Sheet2!$D$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>ln(T/Ts)</t>
   </si>
@@ -81,13 +81,54 @@
   <si>
     <t>Z = 1/(4a)*(5*b*ln(b+T)- b*ln(T) -4*T + k)</t>
   </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Condensing Temperature</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>(km)</t>
+  </si>
+  <si>
+    <t>Temp.</t>
+  </si>
+  <si>
+    <t>(°C)</t>
+  </si>
+  <si>
+    <t>Atmospheric</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>(x Earth)</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>(°K)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,8 +156,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,7 +196,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -154,10 +203,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.8120635863913235E-2"/>
-          <c:y val="0.20743176272295036"/>
-          <c:w val="0.73375427128212756"/>
-          <c:h val="0.71213168641459756"/>
+          <c:x val="8.8120635863913249E-2"/>
+          <c:y val="0.20743176272295039"/>
+          <c:w val="0.73375427128212778"/>
+          <c:h val="0.7121316864145979"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -408,11 +457,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85419136"/>
-        <c:axId val="85288832"/>
+        <c:axId val="85282816"/>
+        <c:axId val="85286272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85419136"/>
+        <c:axId val="85282816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -451,20 +500,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.476054300030678"/>
-              <c:y val="0.94498939230040335"/>
+              <c:x val="0.47605430003067806"/>
+              <c:y val="0.94498939230040346"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="85288832"/>
+        <c:crossAx val="85286272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.11"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85288832"/>
+        <c:axId val="85286272"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="0"/>
@@ -503,14 +552,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9186450750259994E-2"/>
+              <c:x val="1.9186450750259997E-2"/>
               <c:y val="0.45283191601049871"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="high"/>
-        <c:crossAx val="85419136"/>
+        <c:crossAx val="85282816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.505"/>
@@ -531,9 +580,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.260227698810376"/>
-          <c:y val="0.21871684569780214"/>
-          <c:w val="0.37084039023423965"/>
-          <c:h val="0.20802830956034649"/>
+          <c:y val="0.2187168456978022"/>
+          <c:w val="0.37084039023423976"/>
+          <c:h val="0.20802830956034651"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -559,7 +608,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -569,9 +618,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -981,11 +1028,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="183166848"/>
-        <c:axId val="182921088"/>
+        <c:axId val="85437440"/>
+        <c:axId val="85476480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183166848"/>
+        <c:axId val="85437440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="700"/>
@@ -994,12 +1041,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182921088"/>
+        <c:crossAx val="85476480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182921088"/>
+        <c:axId val="85476480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1009,20 +1056,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183166848"/>
+        <c:crossAx val="85437440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1036,7 +1082,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4440424676645162E-2"/>
+          <c:y val="0.1427567737238952"/>
+          <c:w val="0.83238835686079782"/>
+          <c:h val="0.77225033893664052"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -1044,11 +1100,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>adiabatic!$B$2</c:f>
+              <c:f>adiabatic!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T</c:v>
+                  <c:v>Condensing Temperature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1065,7 +1121,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>adiabatic!$B$3:$B$100</c:f>
+              <c:f>adiabatic!$B$4:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
@@ -1368,7 +1424,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>adiabatic!$A$3:$A$100</c:f>
+              <c:f>adiabatic!$A$4:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
@@ -1670,11 +1726,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="183891072"/>
-        <c:axId val="184218752"/>
+        <c:axId val="144386688"/>
+        <c:axId val="145978496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183891072"/>
+        <c:axId val="144386688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -1683,12 +1739,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184218752"/>
+        <c:crossAx val="145978496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184218752"/>
+        <c:axId val="145978496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1698,7 +1754,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183891072"/>
+        <c:crossAx val="144386688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1713,13 +1769,671 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10051651651651652"/>
+          <c:y val="0.81024944401033849"/>
+          <c:w val="0.33732132132132137"/>
+          <c:h val="6.135000300534952E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Clausius-Clayperone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36318044619422585"/>
+          <c:y val="6.4814814814814825E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>adiabatic!$F$5:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>adiabatic!$G$5:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>92.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8510000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7650000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7600000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7359999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6599999999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>adiabatic!$B$17:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>adiabatic!$C$17:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>1.912461991845954E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6006580884802827E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9173059431373802E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9530955606124938E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5673848653530085E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1155681391662789E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9337898662702317E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15407371057084143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22962205964573901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33054485964856306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46159646486263139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62761306420248597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83340800656177449</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0836773019455228</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3829179266485609</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7353602037675728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1449144711340549</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6151314783850688</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1491754386088715</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7498083523024333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4193840754255493</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1598505762702498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.9727588812482706</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.859277318196785</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.8202098048366189</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.8560170829287106</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.966839953701589</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.152523719381687</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.412643174233336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.746527613677726</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.153285440647483</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.631828044252341</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.180892707690759</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.799064371172385</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.484796132675577</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.236428415997747</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.052206773106555</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.93029831754496</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.868806808764621</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30.865786424824083</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.919254273836799</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.027201703710901</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.187604475800278</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39.398431871689915</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.657654803980179</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.963253002043388</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.313221342658245</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.705575393476323</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51.13835623468033</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53.609634621150107</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.117514544114229</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58.660136247759212</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61.23567875268823</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63.842361934544485</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66.478448202598329</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>69.142243819682378</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71.832099901577777</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>74.546413130827816</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>77.283626216995472</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>80.042228132597415</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>82.820754151340509</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.617785712858364</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>88.431950135890474</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>91.26192019976034</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>94.106413612084424</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>96.964192378873037</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>99.834062091560668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="170423808"/>
+        <c:axId val="170425344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="170423808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170425344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="170425344"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170423808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1837,62 +2551,52 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://www4b.wolframalpha.com/Calculate/MSP/MSP12411d5d62d56660297b00000e48c4d63684d0dh?MSPStoreType=image/gif&amp;s=28&amp;w=349.&amp;h=156.&amp;cdf=Coordinates&amp;cdf=Tooltips"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6686550" y="742950"/>
-          <a:ext cx="3324225" cy="1485900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2264,13 +2968,13 @@
         <v>-7.5328821688312075</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="D4:E63" si="3">+($B4)^$D$1</f>
+        <f t="shared" ref="E4:E63" si="3">+($B4)^$D$1</f>
         <v>5.3519351358606105E-4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <f t="shared" ref="A5:A68" si="4">+$A4+$A$1</f>
+        <f t="shared" ref="A5:A63" si="4">+$A4+$A$1</f>
         <v>220</v>
       </c>
       <c r="B5">
@@ -3606,7 +4310,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <f>1/a*((b+cc)*LN(b+$B3) - cc*LN($B3) - $B3 + k)</f>
+        <f t="shared" ref="A3:A34" si="0">1/a*((b+cc)*LN(b+$B3) - cc*LN($B3) - $B3 + k)</f>
         <v>151.46266306745113</v>
       </c>
       <c r="B3">
@@ -3624,7 +4328,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <f>1/a*((b+cc)*LN(b+$B4) - cc*LN($B4) - $B4 + k)</f>
+        <f t="shared" si="0"/>
         <v>144.26080635688129</v>
       </c>
       <c r="B4">
@@ -3643,11 +4347,11 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <f>1/a*((b+cc)*LN(b+$B5) - cc*LN($B5) - $B5 + k)</f>
+        <f t="shared" si="0"/>
         <v>137.70224651941112</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B68" si="0">+$B4+$B$1</f>
+        <f t="shared" ref="B5:B33" si="1">+$B4+$B$1</f>
         <v>120</v>
       </c>
       <c r="D5">
@@ -3659,11 +4363,11 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <f>1/a*((b+cc)*LN(b+$B6) - cc*LN($B6) - $B6 + k)</f>
+        <f t="shared" si="0"/>
         <v>131.68293357434592</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="D6">
@@ -3675,11 +4379,11 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <f>1/a*((b+cc)*LN(b+$B7) - cc*LN($B7) - $B7 + k)</f>
+        <f t="shared" si="0"/>
         <v>126.12199813268499</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="D7">
@@ -3689,11 +4393,11 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <f>1/a*((b+cc)*LN(b+$B8) - cc*LN($B8) - $B8 + k)</f>
+        <f t="shared" si="0"/>
         <v>120.95534169236483</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D8">
@@ -3705,11 +4409,11 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <f>1/a*((b+cc)*LN(b+$B9) - cc*LN($B9) - $B9 + k)</f>
+        <f t="shared" si="0"/>
         <v>116.13129980707315</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="D9">
@@ -3718,11 +4422,11 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <f>1/a*((b+cc)*LN(b+$B10) - cc*LN($B10) - $B10 + k)</f>
+        <f t="shared" si="0"/>
         <v>111.60762233799045</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="D10">
@@ -3732,11 +4436,11 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <f>1/a*((b+cc)*LN(b+$B11) - cc*LN($B11) - $B11 + k)</f>
+        <f t="shared" si="0"/>
         <v>107.34931815886036</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="D11">
@@ -3746,11 +4450,11 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <f>1/a*((b+cc)*LN(b+$B12) - cc*LN($B12) - $B12 + k)</f>
+        <f t="shared" si="0"/>
         <v>103.32708337107807</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="D12">
@@ -3760,11 +4464,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <f>1/a*((b+cc)*LN(b+$B13) - cc*LN($B13) - $B13 + k)</f>
+        <f t="shared" si="0"/>
         <v>99.516133156850188</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="D13">
@@ -3773,511 +4477,511 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <f>1/a*((b+cc)*LN(b+$B14) - cc*LN($B14) - $B14 + k)</f>
+        <f t="shared" si="0"/>
         <v>95.895318937763363</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <f>1/a*((b+cc)*LN(b+$B15) - cc*LN($B15) - $B15 + k)</f>
+        <f t="shared" si="0"/>
         <v>92.446451100457281</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <f>1/a*((b+cc)*LN(b+$B16) - cc*LN($B16) - $B16 + k)</f>
+        <f t="shared" si="0"/>
         <v>89.153772397817065</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <f>1/a*((b+cc)*LN(b+$B17) - cc*LN($B17) - $B17 + k)</f>
+        <f t="shared" si="0"/>
         <v>86.003543508268152</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <f>1/a*((b+cc)*LN(b+$B18) - cc*LN($B18) - $B18 + k)</f>
+        <f t="shared" si="0"/>
         <v>82.983713255171111</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <f>1/a*((b+cc)*LN(b+$B19) - cc*LN($B19) - $B19 + k)</f>
+        <f t="shared" si="0"/>
         <v>80.083653545848136</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <f>1/a*((b+cc)*LN(b+$B20) - cc*LN($B20) - $B20 + k)</f>
+        <f t="shared" si="0"/>
         <v>77.293944362879216</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <f>1/a*((b+cc)*LN(b+$B21) - cc*LN($B21) - $B21 + k)</f>
+        <f t="shared" si="0"/>
         <v>74.606197877638706</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <f>1/a*((b+cc)*LN(b+$B22) - cc*LN($B22) - $B22 + k)</f>
+        <f t="shared" si="0"/>
         <v>72.012913443118691</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <f>1/a*((b+cc)*LN(b+$B23) - cc*LN($B23) - $B23 + k)</f>
+        <f t="shared" si="0"/>
         <v>69.507357180787167</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <f>1/a*((b+cc)*LN(b+$B24) - cc*LN($B24) - $B24 + k)</f>
+        <f t="shared" si="0"/>
         <v>67.08346131988641</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <f>1/a*((b+cc)*LN(b+$B25) - cc*LN($B25) - $B25 + k)</f>
+        <f t="shared" si="0"/>
         <v>64.735739524339635</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <f>1/a*((b+cc)*LN(b+$B26) - cc*LN($B26) - $B26 + k)</f>
+        <f t="shared" si="0"/>
         <v>62.459215253873545</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <f>1/a*((b+cc)*LN(b+$B27) - cc*LN($B27) - $B27 + k)</f>
+        <f t="shared" si="0"/>
         <v>60.249360823516554</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <f>1/a*((b+cc)*LN(b+$B28) - cc*LN($B28) - $B28 + k)</f>
+        <f t="shared" si="0"/>
         <v>58.102045299869239</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <f>1/a*((b+cc)*LN(b+$B29) - cc*LN($B29) - $B29 + k)</f>
+        <f t="shared" si="0"/>
         <v>56.013489739820777</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <f>1/a*((b+cc)*LN(b+$B30) - cc*LN($B30) - $B30 + k)</f>
+        <f t="shared" si="0"/>
         <v>53.980228564155283</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <f>1/a*((b+cc)*LN(b+$B31) - cc*LN($B31) - $B31 + k)</f>
+        <f t="shared" si="0"/>
         <v>51.999076083996009</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <f>1/a*((b+cc)*LN(b+$B32) - cc*LN($B32) - $B32 + k)</f>
+        <f t="shared" si="0"/>
         <v>50.067097376691635</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <f>1/a*((b+cc)*LN(b+$B33) - cc*LN($B33) - $B33 + k)</f>
+        <f t="shared" si="0"/>
         <v>48.181582850193919</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <f>1/a*((b+cc)*LN(b+$B34) - cc*LN($B34) - $B34 + k)</f>
+        <f t="shared" si="0"/>
         <v>46.340025949248215</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B64" si="1">+$B33+$B$1</f>
+        <f t="shared" ref="B34:B64" si="2">+$B33+$B$1</f>
         <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <f>1/a*((b+cc)*LN(b+$B35) - cc*LN($B35) - $B35 + k)</f>
+        <f t="shared" ref="A35:A64" si="3">1/a*((b+cc)*LN(b+$B35) - cc*LN($B35) - $B35 + k)</f>
         <v>44.540103548992349</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <f>1/a*((b+cc)*LN(b+$B36) - cc*LN($B36) - $B36 + k)</f>
+        <f t="shared" si="3"/>
         <v>42.779658656414732</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <f>1/a*((b+cc)*LN(b+$B37) - cc*LN($B37) - $B37 + k)</f>
+        <f t="shared" si="3"/>
         <v>41.056685101228588</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <f>1/a*((b+cc)*LN(b+$B38) - cc*LN($B38) - $B38 + k)</f>
+        <f t="shared" si="3"/>
         <v>39.369313947836623</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <f>1/a*((b+cc)*LN(b+$B39) - cc*LN($B39) - $B39 + k)</f>
+        <f t="shared" si="3"/>
         <v>37.715801401341665</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <f>1/a*((b+cc)*LN(b+$B40) - cc*LN($B40) - $B40 + k)</f>
+        <f t="shared" si="3"/>
         <v>36.094518014765896</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <f>1/a*((b+cc)*LN(b+$B41) - cc*LN($B41) - $B41 + k)</f>
+        <f t="shared" si="3"/>
         <v>34.503939033054145</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <f>1/a*((b+cc)*LN(b+$B42) - cc*LN($B42) - $B42 + k)</f>
+        <f t="shared" si="3"/>
         <v>32.942635733189711</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <f>1/a*((b+cc)*LN(b+$B43) - cc*LN($B43) - $B43 + k)</f>
+        <f t="shared" si="3"/>
         <v>31.409267639631654</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <f>1/a*((b+cc)*LN(b+$B44) - cc*LN($B44) - $B44 + k)</f>
+        <f t="shared" si="3"/>
         <v>29.90257551105417</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <f>1/a*((b+cc)*LN(b+$B45) - cc*LN($B45) - $B45 + k)</f>
+        <f t="shared" si="3"/>
         <v>28.421375008486116</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <f>1/a*((b+cc)*LN(b+$B46) - cc*LN($B46) - $B46 + k)</f>
+        <f t="shared" si="3"/>
         <v>26.96455096696425</v>
       </c>
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <f>1/a*((b+cc)*LN(b+$B47) - cc*LN($B47) - $B47 + k)</f>
+        <f t="shared" si="3"/>
         <v>25.531052202979176</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <f>1/a*((b+cc)*LN(b+$B48) - cc*LN($B48) - $B48 + k)</f>
+        <f t="shared" si="3"/>
         <v>24.119886798730004</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <f>1/a*((b+cc)*LN(b+$B49) - cc*LN($B49) - $B49 + k)</f>
+        <f t="shared" si="3"/>
         <v>22.7301178115958</v>
       </c>
       <c r="B49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>560</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <f>1/a*((b+cc)*LN(b+$B50) - cc*LN($B50) - $B50 + k)</f>
+        <f t="shared" si="3"/>
         <v>21.360859363682778</v>
       </c>
       <c r="B50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>570</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <f>1/a*((b+cc)*LN(b+$B51) - cc*LN($B51) - $B51 + k)</f>
+        <f t="shared" si="3"/>
         <v>20.011273071750121</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <f>1/a*((b+cc)*LN(b+$B52) - cc*LN($B52) - $B52 + k)</f>
+        <f t="shared" si="3"/>
         <v>18.680564782604058</v>
       </c>
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>590</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <f>1/a*((b+cc)*LN(b+$B53) - cc*LN($B53) - $B53 + k)</f>
+        <f t="shared" si="3"/>
         <v>17.367981583142189</v>
       </c>
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <f>1/a*((b+cc)*LN(b+$B54) - cc*LN($B54) - $B54 + k)</f>
+        <f t="shared" si="3"/>
         <v>16.07280905780242</v>
       </c>
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>610</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <f>1/a*((b+cc)*LN(b+$B55) - cc*LN($B55) - $B55 + k)</f>
+        <f t="shared" si="3"/>
         <v>14.794368769264329</v>
       </c>
       <c r="B55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <f>1/a*((b+cc)*LN(b+$B56) - cc*LN($B56) - $B56 + k)</f>
+        <f t="shared" si="3"/>
         <v>13.53201594097334</v>
       </c>
       <c r="B56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>630</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <f>1/a*((b+cc)*LN(b+$B57) - cc*LN($B57) - $B57 + k)</f>
+        <f t="shared" si="3"/>
         <v>12.285137322393105</v>
       </c>
       <c r="B57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>640</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <f>1/a*((b+cc)*LN(b+$B58) - cc*LN($B58) - $B58 + k)</f>
+        <f t="shared" si="3"/>
         <v>11.053149220004343</v>
       </c>
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <f>1/a*((b+cc)*LN(b+$B59) - cc*LN($B59) - $B59 + k)</f>
+        <f t="shared" si="3"/>
         <v>9.8354956788361498</v>
       </c>
       <c r="B59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>660</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <f>1/a*((b+cc)*LN(b+$B60) - cc*LN($B60) - $B60 + k)</f>
+        <f t="shared" si="3"/>
         <v>8.63164680095859</v>
       </c>
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <f>1/a*((b+cc)*LN(b+$B61) - cc*LN($B61) - $B61 + k)</f>
+        <f t="shared" si="3"/>
         <v>7.4410971887539468</v>
       </c>
       <c r="B61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>680</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <f>1/a*((b+cc)*LN(b+$B62) - cc*LN($B62) - $B62 + k)</f>
+        <f t="shared" si="3"/>
         <v>6.263364502022462</v>
       </c>
       <c r="B62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>690</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <f>1/a*((b+cc)*LN(b+$B63) - cc*LN($B63) - $B63 + k)</f>
+        <f t="shared" si="3"/>
         <v>5.0979881190994663</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <f>1/a*((b+cc)*LN(b+$B64) - cc*LN($B64) - $B64 + k)</f>
+        <f t="shared" si="3"/>
         <v>3.9445278931304069</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>710</v>
       </c>
     </row>
@@ -4289,1105 +4993,1794 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1">
+    <row r="1" spans="1:14">
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30">
+      <c r="B2">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <f>1/(4*a)*(5*b*LN(b+$B3)- b*LN($B3) -4*$B3) + k</f>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <f t="shared" ref="A4:A35" si="0">1/(4*a)*(5*b*LN(b+$B4)- b*LN($B4) -4*$B4) + k</f>
         <v>252.28522808270554</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="C4">
+        <f t="shared" ref="C4:C35" si="1">+$C$2*EXP(-L/R_gas/$B4)+$C$1</f>
+        <v>8.7558714893752431E-78</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <f>1/(4*a)*(5*b*LN(b+$B4)- b*LN($B4) -4*$B4) + k</f>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <f t="shared" si="0"/>
         <v>211.35351159191168</v>
       </c>
-      <c r="B4">
-        <f>+$B3+$B$1</f>
+      <c r="B5">
+        <f>+$B4+$B$2</f>
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>9.3572813837007395E-38</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>462</v>
+      </c>
+      <c r="F5" s="1">
+        <f>273+$E5</f>
+        <v>735</v>
+      </c>
+      <c r="G5" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="H5">
         <v>15326</v>
       </c>
-      <c r="E4">
+      <c r="I5">
         <v>20000</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <f>1/(4*a)*(5*b*LN(b+$B5)- b*LN($B5) -4*$B5) + k</f>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <f t="shared" si="0"/>
         <v>187.5299803763512</v>
       </c>
-      <c r="B5">
-        <f t="shared" ref="B5:B68" si="0">+$B4+$B$1</f>
+      <c r="B6">
+        <f t="shared" ref="B6:B65" si="2">+$B5+$B$2</f>
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.061103462710789E-24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>424</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F22" si="3">273+$E6</f>
+        <v>697</v>
+      </c>
+      <c r="G6" s="1">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="H6">
         <v>8.3140000000000001</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <f>1/(4*a)*(5*b*LN(b+$B6)- b*LN($B6) -4*$B6) + k</f>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <f t="shared" si="0"/>
         <v>170.70592794627169</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
+      <c r="B7">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="D6">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>9.6733041840421509E-18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>385</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>658</v>
+      </c>
+      <c r="G7" s="1">
+        <v>47.39</v>
+      </c>
+      <c r="H7">
         <v>43.56</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <f>1/(4*a)*(5*b*LN(b+$B7)- b*LN($B7) -4*$B7) + k</f>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>157.71345656732137</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
+      <c r="B8">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="D7">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>9.7377781433523862E-14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>348</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>621</v>
+      </c>
+      <c r="G8" s="1">
+        <v>33.04</v>
+      </c>
+      <c r="H8">
         <f>8.87</f>
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <f>1/(4*a)*(5*b*LN(b+$B8)- b*LN($B8) -4*$B8) + k</f>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <f t="shared" si="0"/>
         <v>147.14154848072235</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
+      <c r="B9">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="D8">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>4.5399377338359931E-11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>306</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>579</v>
+      </c>
+      <c r="G9" s="1">
+        <v>22.52</v>
+      </c>
+      <c r="H9">
         <v>-1848</v>
       </c>
-      <c r="E8">
+      <c r="I9">
         <v>-26000</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <f>1/(4*a)*(5*b*LN(b+$B9)- b*LN($B9) -4*$B9) + k</f>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <f t="shared" si="0"/>
         <v>138.23756367950682</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
+      <c r="B10">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="D9">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>3.6575108702553942E-9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>264</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>537</v>
+      </c>
+      <c r="G10" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="H10">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <f>1/(4*a)*(5*b*LN(b+$B10)- b*LN($B10) -4*$B10) + k</f>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <f t="shared" si="0"/>
         <v>130.55227684801343</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
+      <c r="B11">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="D10">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>9.8352957169787989E-8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>222</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.8510000000000009</v>
+      </c>
+      <c r="H11">
         <f>1/f*g*MW/R_gas</f>
         <v>7.7455135915323545</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <f>1/(4*a)*(5*b*LN(b+$B11)- b*LN($B11) -4*$B11) + k</f>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <f t="shared" si="0"/>
         <v>123.79595750446583</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
+      <c r="B12">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="D11">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>1.2726234777549705E-6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>180</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.9169999999999998</v>
+      </c>
+      <c r="H12">
         <f>L*u/R_gas</f>
         <v>1843.396680298292</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <f>1/(4*a)*(5*b*LN(b+$B12)- b*LN($B12) -4*$B12) + k</f>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <f t="shared" si="0"/>
         <v>117.77080513888473</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
+      <c r="B13">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <f>1/(4*a)*(5*b*LN(b+$B13)- b*LN($B13) -4*$B13) + k</f>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>9.8680181107213147E-6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>143</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.5009999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <f t="shared" si="0"/>
         <v>112.33575921238435</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
+      <c r="B14">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <f>1/(4*a)*(5*b*LN(b+$B14)- b*LN($B14) -4*$B14) + k</f>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>5.2726290275951316E-5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1">
+        <v>110</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>383</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.9790000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <f t="shared" si="0"/>
         <v>107.38668596317621</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
+      <c r="B15">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <f>1/(4*a)*(5*b*LN(b+$B15)- b*LN($B15) -4*$B15) + k</f>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>2.1307129637367848E-4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0660000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <f t="shared" si="0"/>
         <v>102.84452319247907</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
+      <c r="B16">
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <f>1/(4*a)*(5*b*LN(b+$B16)- b*LN($B16) -4*$B16) + k</f>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>6.9456890540127068E-4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.53139999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <f t="shared" si="0"/>
         <v>98.647831042631651</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
+      <c r="B17">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <f>1/(4*a)*(5*b*LN(b+$B17)- b*LN($B17) -4*$B17) + k</f>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1.912461991845954E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3">
+        <f>-10</f>
+        <v>-10</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>263</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.23569999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>94.747919020079735</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
+      <c r="B18">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <f>1/(4*a)*(5*b*LN(b+$B18)- b*LN($B18) -4*$B18) + k</f>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>4.6006580884802827E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-30</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.7650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <f t="shared" si="0"/>
         <v>91.105548925278526</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
+      <c r="B19">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <f>1/(4*a)*(5*b*LN(b+$B19)- b*LN($B19) -4*$B19) + k</f>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>9.9173059431373802E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-43</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <f t="shared" si="0"/>
         <v>87.688639097779742</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
+      <c r="B20">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <f>1/(4*a)*(5*b*LN(b+$B20)- b*LN($B20) -4*$B20) + k</f>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>1.9530955606124938E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>80</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-76</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.7600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <f t="shared" si="0"/>
         <v>84.470625863710666</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
+      <c r="B21">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <f>1/(4*a)*(5*b*LN(b+$B21)- b*LN($B21) -4*$B21) + k</f>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>3.5673848653530085E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>90</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-104</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.7359999999999997E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <f t="shared" si="0"/>
         <v>81.429268597802547</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
+      <c r="B22">
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <f>1/(4*a)*(5*b*LN(b+$B22)- b*LN($B22) -4*$B22) + k</f>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>6.1155681391662789E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-112</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.6599999999999999E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <f t="shared" si="0"/>
         <v>78.545761651866997</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
+      <c r="B23">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <f>1/(4*a)*(5*b*LN(b+$B23)- b*LN($B23) -4*$B23) + k</f>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>9.9337898662702317E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <f t="shared" si="0"/>
         <v>75.804063187035126</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
+      <c r="B24">
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <f>1/(4*a)*(5*b*LN(b+$B24)- b*LN($B24) -4*$B24) + k</f>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.15407371057084143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <f t="shared" si="0"/>
         <v>73.19038028852151</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
+      <c r="B25">
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <f>1/(4*a)*(5*b*LN(b+$B25)- b*LN($B25) -4*$B25) + k</f>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.22962205964573901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <f t="shared" si="0"/>
         <v>70.692768631457966</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
+      <c r="B26">
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <f>1/(4*a)*(5*b*LN(b+$B26)- b*LN($B26) -4*$B26) + k</f>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.33054485964856306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <f t="shared" si="0"/>
         <v>68.300817414838775</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
+      <c r="B27">
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <f>1/(4*a)*(5*b*LN(b+$B27)- b*LN($B27) -4*$B27) + k</f>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.46159646486263139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <f t="shared" si="0"/>
         <v>66.005398658179047</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
+      <c r="B28">
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <f>1/(4*a)*(5*b*LN(b+$B28)- b*LN($B28) -4*$B28) + k</f>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.62761306420248597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <f t="shared" si="0"/>
         <v>63.798465701079749</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
+      <c r="B29">
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <f>1/(4*a)*(5*b*LN(b+$B29)- b*LN($B29) -4*$B29) + k</f>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.83340800656177449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <f t="shared" si="0"/>
         <v>61.67288975484189</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
+      <c r="B30">
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <f>1/(4*a)*(5*b*LN(b+$B30)- b*LN($B30) -4*$B30) + k</f>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1.0836773019455228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <f t="shared" si="0"/>
         <v>59.622326196522863</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
+      <c r="B31">
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <f>1/(4*a)*(5*b*LN(b+$B31)- b*LN($B31) -4*$B31) + k</f>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1.3829179266485609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <f t="shared" si="0"/>
         <v>57.641104338753621</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
+      <c r="B32">
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <f>1/(4*a)*(5*b*LN(b+$B32)- b*LN($B32) -4*$B32) + k</f>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>1.7353602037675728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <f t="shared" si="0"/>
         <v>55.724135896914959</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
+      <c r="B33">
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <f>1/(4*a)*(5*b*LN(b+$B33)- b*LN($B33) -4*$B33) + k</f>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>2.1449144711340549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <f t="shared" si="0"/>
         <v>53.866838472871677</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
+      <c r="B34">
+        <f t="shared" si="2"/>
         <v>310</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <f>1/(4*a)*(5*b*LN(b+$B34)- b*LN($B34) -4*$B34) + k</f>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>2.6151314783850688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <f t="shared" si="0"/>
         <v>52.065071193036601</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
+      <c r="B35">
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <f>1/(4*a)*(5*b*LN(b+$B35)- b*LN($B35) -4*$B35) + k</f>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>3.1491754386088715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <f t="shared" ref="A36:A67" si="4">1/(4*a)*(5*b*LN(b+$B36)- b*LN($B36) -4*$B36) + k</f>
         <v>50.315080255456223</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
+      <c r="B36">
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <f>1/(4*a)*(5*b*LN(b+$B36)- b*LN($B36) -4*$B36) + k</f>
+      <c r="C36">
+        <f t="shared" ref="C36:C67" si="5">+$C$2*EXP(-L/R_gas/$B36)+$C$1</f>
+        <v>3.7498083523024333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <f t="shared" si="4"/>
         <v>48.613452610089325</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
+      <c r="B37">
+        <f t="shared" si="2"/>
         <v>340</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <f>1/(4*a)*(5*b*LN(b+$B37)- b*LN($B37) -4*$B37) + k</f>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>4.4193840754255493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <f t="shared" si="4"/>
         <v>46.957076357007736</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
+      <c r="B38">
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <f>1/(4*a)*(5*b*LN(b+$B38)- b*LN($B38) -4*$B38) + k</f>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>5.1598505762702498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <f t="shared" si="4"/>
         <v>45.343106726455744</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
+      <c r="B39">
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <f>1/(4*a)*(5*b*LN(b+$B39)- b*LN($B39) -4*$B39) + k</f>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>5.9727588812482706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <f t="shared" si="4"/>
         <v>43.768936722726949</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
+      <c r="B40">
+        <f t="shared" si="2"/>
         <v>370</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <f>1/(4*a)*(5*b*LN(b+$B40)- b*LN($B40) -4*$B40) + k</f>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>6.859277318196785</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <f t="shared" si="4"/>
         <v>42.232171685261619</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
+      <c r="B41">
+        <f t="shared" si="2"/>
         <v>380</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <f>1/(4*a)*(5*b*LN(b+$B41)- b*LN($B41) -4*$B41) + k</f>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>7.8202098048366189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <f t="shared" si="4"/>
         <v>40.730607156186124</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
+      <c r="B42">
+        <f t="shared" si="2"/>
         <v>390</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <f>1/(4*a)*(5*b*LN(b+$B42)- b*LN($B42) -4*$B42) + k</f>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>8.8560170829287106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <f t="shared" si="4"/>
         <v>39.262209551810656</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
+      <c r="B43">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <f>1/(4*a)*(5*b*LN(b+$B43)- b*LN($B43) -4*$B43) + k</f>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>9.966839953701589</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <f t="shared" si="4"/>
         <v>37.825099222480276</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
+      <c r="B44">
+        <f t="shared" si="2"/>
         <v>410</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <f>1/(4*a)*(5*b*LN(b+$B44)- b*LN($B44) -4*$B44) + k</f>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>11.152523719381687</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <f t="shared" si="4"/>
         <v>36.417535555322274</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
+      <c r="B45">
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <f>1/(4*a)*(5*b*LN(b+$B45)- b*LN($B45) -4*$B45) + k</f>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>12.412643174233336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <f t="shared" si="4"/>
         <v>35.03790383133969</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
+      <c r="B46">
+        <f t="shared" si="2"/>
         <v>430</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <f>1/(4*a)*(5*b*LN(b+$B46)- b*LN($B46) -4*$B46) + k</f>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>13.746527613677726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <f t="shared" si="4"/>
         <v>33.684703594768735</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
+      <c r="B47">
+        <f t="shared" si="2"/>
         <v>440</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <f>1/(4*a)*(5*b*LN(b+$B47)- b*LN($B47) -4*$B47) + k</f>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>15.153285440647483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <f t="shared" si="4"/>
         <v>32.356538330693866</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
+      <c r="B48">
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <f>1/(4*a)*(5*b*LN(b+$B48)- b*LN($B48) -4*$B48) + k</f>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>16.631828044252341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <f t="shared" si="4"/>
         <v>31.052106278337078</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
+      <c r="B49">
+        <f t="shared" si="2"/>
         <v>460</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <f>1/(4*a)*(5*b*LN(b+$B49)- b*LN($B49) -4*$B49) + k</f>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>18.180892707690759</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <f t="shared" si="4"/>
         <v>29.770192233398575</v>
       </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
+      <c r="B50">
+        <f t="shared" si="2"/>
         <v>470</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <f>1/(4*a)*(5*b*LN(b+$B50)- b*LN($B50) -4*$B50) + k</f>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>19.799064371172385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <f t="shared" si="4"/>
         <v>28.509660214471523</v>
       </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
+      <c r="B51">
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <f>1/(4*a)*(5*b*LN(b+$B51)- b*LN($B51) -4*$B51) + k</f>
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>21.484796132675577</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <f t="shared" si="4"/>
         <v>27.26944688656954</v>
       </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
+      <c r="B52">
+        <f t="shared" si="2"/>
         <v>490</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <f>1/(4*a)*(5*b*LN(b+$B52)- b*LN($B52) -4*$B52) + k</f>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>23.236428415997747</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <f t="shared" si="4"/>
         <v>26.048555649955688</v>
       </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
+      <c r="B53">
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <f>1/(4*a)*(5*b*LN(b+$B53)- b*LN($B53) -4*$B53) + k</f>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>25.052206773106555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <f t="shared" si="4"/>
         <v>24.846051315189925</v>
       </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
+      <c r="B54">
+        <f t="shared" si="2"/>
         <v>510</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <f>1/(4*a)*(5*b*LN(b+$B54)- b*LN($B54) -4*$B54) + k</f>
+      <c r="C54">
+        <f t="shared" si="5"/>
+        <v>26.93029831754496</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <f t="shared" si="4"/>
         <v>23.661055296048062</v>
       </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
+      <c r="B55">
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <f>1/(4*a)*(5*b*LN(b+$B55)- b*LN($B55) -4*$B55) + k</f>
+      <c r="C55">
+        <f t="shared" si="5"/>
+        <v>28.868806808764621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <f t="shared" si="4"/>
         <v>22.492741261115043</v>
       </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
+      <c r="B56">
+        <f t="shared" si="2"/>
         <v>530</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <f>1/(4*a)*(5*b*LN(b+$B56)- b*LN($B56) -4*$B56) + k</f>
+      <c r="C56">
+        <f t="shared" si="5"/>
+        <v>30.865786424824083</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <f t="shared" si="4"/>
         <v>21.340331192557414</v>
       </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
+      <c r="B57">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <f>1/(4*a)*(5*b*LN(b+$B57)- b*LN($B57) -4*$B57) + k</f>
+      <c r="C57">
+        <f t="shared" si="5"/>
+        <v>32.919254273836799</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <f t="shared" si="4"/>
         <v>20.203091807242345</v>
       </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
+      <c r="B58">
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <f>1/(4*a)*(5*b*LN(b+$B58)- b*LN($B58) -4*$B58) + k</f>
+      <c r="C58">
+        <f t="shared" si="5"/>
+        <v>35.027201703710901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <f t="shared" si="4"/>
         <v>19.08033130099102</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
+      <c r="B59">
+        <f t="shared" si="2"/>
         <v>560</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <f>1/(4*a)*(5*b*LN(b+$B59)- b*LN($B59) -4*$B59) + k</f>
+      <c r="C59">
+        <f t="shared" si="5"/>
+        <v>37.187604475800278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <f t="shared" si="4"/>
         <v>17.971396381640034</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
+      <c r="B60">
+        <f t="shared" si="2"/>
         <v>570</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <f>1/(4*a)*(5*b*LN(b+$B60)- b*LN($B60) -4*$B60) + k</f>
+      <c r="C60">
+        <f t="shared" si="5"/>
+        <v>39.398431871689915</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <f t="shared" si="4"/>
         <v>16.875669560741471</v>
       </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
+      <c r="B61">
+        <f t="shared" si="2"/>
         <v>580</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <f>1/(4*a)*(5*b*LN(b+$B61)- b*LN($B61) -4*$B61) + k</f>
+      <c r="C61">
+        <f t="shared" si="5"/>
+        <v>41.657654803980179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <f t="shared" si="4"/>
         <v>15.792566677364675</v>
       </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
+      <c r="B62">
+        <f t="shared" si="2"/>
         <v>590</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <f>1/(4*a)*(5*b*LN(b+$B62)- b*LN($B62) -4*$B62) + k</f>
+      <c r="C62">
+        <f t="shared" si="5"/>
+        <v>43.963253002043388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <f t="shared" si="4"/>
         <v>14.721534630569977</v>
       </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
+      <c r="B63">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <f>1/(4*a)*(5*b*LN(b+$B63)- b*LN($B63) -4*$B63) + k</f>
+      <c r="C63">
+        <f t="shared" si="5"/>
+        <v>46.313221342658245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <f t="shared" si="4"/>
         <v>13.662049299849741</v>
       </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
+      <c r="B64">
+        <f t="shared" si="2"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <f>1/(4*a)*(5*b*LN(b+$B64)- b*LN($B64) -4*$B64) + k</f>
+      <c r="C64">
+        <f t="shared" si="5"/>
+        <v>48.705575393476323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <f t="shared" si="4"/>
         <v>12.61361363517176</v>
       </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
+      <c r="B65">
+        <f t="shared" si="2"/>
         <v>620</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <f>1/(4*a)*(5*b*LN(b+$B65)- b*LN($B65) -4*$B65) + k</f>
+      <c r="C65">
+        <f t="shared" si="5"/>
+        <v>51.13835623468033</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <f t="shared" si="4"/>
         <v>11.575755900338208</v>
       </c>
-      <c r="B65">
-        <f t="shared" ref="B65:B104" si="1">+$B64+$B$1</f>
+      <c r="B66">
+        <f t="shared" ref="B66:B105" si="6">+$B65+$B$2</f>
         <v>630</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <f>1/(4*a)*(5*b*LN(b+$B66)- b*LN($B66) -4*$B66) + k</f>
+      <c r="C66">
+        <f t="shared" si="5"/>
+        <v>53.609634621150107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <f t="shared" si="4"/>
         <v>10.548028055158511</v>
       </c>
-      <c r="B66">
-        <f t="shared" si="1"/>
+      <c r="B67">
+        <f t="shared" si="6"/>
         <v>640</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <f>1/(4*a)*(5*b*LN(b+$B67)- b*LN($B67) -4*$B67) + k</f>
+      <c r="C67">
+        <f t="shared" si="5"/>
+        <v>56.117514544114229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <f t="shared" ref="A68:A99" si="7">1/(4*a)*(5*b*LN(b+$B68)- b*LN($B68) -4*$B68) + k</f>
         <v>9.5300042635001319</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="1"/>
+      <c r="B68">
+        <f t="shared" si="6"/>
         <v>650</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <f>1/(4*a)*(5*b*LN(b+$B68)- b*LN($B68) -4*$B68) + k</f>
+      <c r="C68">
+        <f t="shared" ref="C68:C99" si="8">+$C$2*EXP(-L/R_gas/$B68)+$C$1</f>
+        <v>58.660136247759212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <f t="shared" si="7"/>
         <v>8.5212795156896846</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="1"/>
+      <c r="B69">
+        <f t="shared" si="6"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <f>1/(4*a)*(5*b*LN(b+$B69)- b*LN($B69) -4*$B69) + k</f>
+      <c r="C69">
+        <f t="shared" si="8"/>
+        <v>61.23567875268823</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <f t="shared" si="7"/>
         <v>7.5214683549215806</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
+      <c r="B70">
+        <f t="shared" si="6"/>
         <v>670</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <f>1/(4*a)*(5*b*LN(b+$B70)- b*LN($B70) -4*$B70) + k</f>
+      <c r="C70">
+        <f t="shared" si="8"/>
+        <v>63.842361934544485</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <f t="shared" si="7"/>
         <v>6.5302036984253391</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
+      <c r="B71">
+        <f t="shared" si="6"/>
         <v>680</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <f>1/(4*a)*(5*b*LN(b+$B71)- b*LN($B71) -4*$B71) + k</f>
+      <c r="C71">
+        <f t="shared" si="8"/>
+        <v>66.478448202598329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <f t="shared" si="7"/>
         <v>5.547135745080368</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
+      <c r="B72">
+        <f t="shared" si="6"/>
         <v>690</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <f>1/(4*a)*(5*b*LN(b+$B72)- b*LN($B72) -4*$B72) + k</f>
+      <c r="C72">
+        <f t="shared" si="8"/>
+        <v>69.142243819682378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <f t="shared" si="7"/>
         <v>4.5719309619985324</v>
       </c>
-      <c r="B72">
-        <f t="shared" si="1"/>
+      <c r="B73">
+        <f t="shared" si="6"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <f>1/(4*a)*(5*b*LN(b+$B73)- b*LN($B73) -4*$B73) + k</f>
+      <c r="C73">
+        <f t="shared" si="8"/>
+        <v>71.832099901577777</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <f t="shared" si="7"/>
         <v>3.6042711433567547</v>
       </c>
-      <c r="B73">
-        <f t="shared" si="1"/>
+      <c r="B74">
+        <f t="shared" si="6"/>
         <v>710</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <f>1/(4*a)*(5*b*LN(b+$B74)- b*LN($B74) -4*$B74) + k</f>
+      <c r="C74">
+        <f t="shared" si="8"/>
+        <v>74.546413130827816</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <f t="shared" si="7"/>
         <v>2.6438525353960358</v>
       </c>
-      <c r="B74">
-        <f t="shared" si="1"/>
+      <c r="B75">
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <f>1/(4*a)*(5*b*LN(b+$B75)- b*LN($B75) -4*$B75) + k</f>
+      <c r="C75">
+        <f t="shared" si="8"/>
+        <v>77.283626216995472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <f t="shared" si="7"/>
         <v>1.6903850221060566</v>
       </c>
-      <c r="B75">
-        <f t="shared" si="1"/>
+      <c r="B76">
+        <f t="shared" si="6"/>
         <v>730</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <f>1/(4*a)*(5*b*LN(b+$B76)- b*LN($B76) -4*$B76) + k</f>
+      <c r="C76">
+        <f t="shared" si="8"/>
+        <v>80.042228132597415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <f t="shared" si="7"/>
         <v>0.74359136663701975</v>
       </c>
-      <c r="B76">
-        <f t="shared" si="1"/>
+      <c r="B77">
+        <f t="shared" si="6"/>
         <v>740</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <f>1/(4*a)*(5*b*LN(b+$B77)- b*LN($B77) -4*$B77) + k</f>
+      <c r="C77">
+        <f t="shared" si="8"/>
+        <v>82.820754151340509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <f t="shared" si="7"/>
         <v>-0.19679349606303731</v>
       </c>
-      <c r="B77">
-        <f t="shared" si="1"/>
+      <c r="B78">
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <f>1/(4*a)*(5*b*LN(b+$B78)- b*LN($B78) -4*$B78) + k</f>
+      <c r="C78">
+        <f t="shared" si="8"/>
+        <v>85.617785712858364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <f t="shared" si="7"/>
         <v>-1.1310231194602238</v>
       </c>
-      <c r="B78">
-        <f t="shared" si="1"/>
+      <c r="B79">
+        <f t="shared" si="6"/>
         <v>760</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <f>1/(4*a)*(5*b*LN(b+$B79)- b*LN($B79) -4*$B79) + k</f>
+      <c r="C79">
+        <f t="shared" si="8"/>
+        <v>88.431950135890474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <f t="shared" si="7"/>
         <v>-2.0593401622013516</v>
       </c>
-      <c r="B79">
-        <f t="shared" si="1"/>
+      <c r="B80">
+        <f t="shared" si="6"/>
         <v>770</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <f>1/(4*a)*(5*b*LN(b+$B80)- b*LN($B80) -4*$B80) + k</f>
+      <c r="C80">
+        <f t="shared" si="8"/>
+        <v>91.26192019976034</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <f t="shared" si="7"/>
         <v>-2.9819769648097463</v>
       </c>
-      <c r="B80">
-        <f t="shared" si="1"/>
+      <c r="B81">
+        <f t="shared" si="6"/>
         <v>780</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <f>1/(4*a)*(5*b*LN(b+$B81)- b*LN($B81) -4*$B81) + k</f>
+      <c r="C81">
+        <f t="shared" si="8"/>
+        <v>94.106413612084424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <f t="shared" si="7"/>
         <v>-3.8991560893725818</v>
       </c>
-      <c r="B81">
-        <f t="shared" si="1"/>
+      <c r="B82">
+        <f t="shared" si="6"/>
         <v>790</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <f>1/(4*a)*(5*b*LN(b+$B82)- b*LN($B82) -4*$B82) + k</f>
+      <c r="C82">
+        <f t="shared" si="8"/>
+        <v>96.964192378873037</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <f t="shared" si="7"/>
         <v>-4.8110908250246212</v>
       </c>
-      <c r="B82">
-        <f t="shared" si="1"/>
+      <c r="B83">
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <f>1/(4*a)*(5*b*LN(b+$B83)- b*LN($B83) -4*$B83) + k</f>
+      <c r="C83">
+        <f t="shared" si="8"/>
+        <v>99.834062091560668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <f t="shared" si="7"/>
         <v>-5.7179856617833593</v>
       </c>
-      <c r="B83">
-        <f t="shared" si="1"/>
+      <c r="B84">
+        <f t="shared" si="6"/>
         <v>810</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <f>1/(4*a)*(5*b*LN(b+$B84)- b*LN($B84) -4*$B84) + k</f>
+      <c r="C84">
+        <f t="shared" si="8"/>
+        <v>102.71487114401373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <f t="shared" si="7"/>
         <v>-6.6200367350688794</v>
       </c>
-      <c r="B84">
-        <f t="shared" si="1"/>
+      <c r="B85">
+        <f t="shared" si="6"/>
         <v>820</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <f>1/(4*a)*(5*b*LN(b+$B85)- b*LN($B85) -4*$B85) + k</f>
+      <c r="C85">
+        <f t="shared" si="8"/>
+        <v>105.60550989120637</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <f t="shared" si="7"/>
         <v>-7.5174322430441407</v>
       </c>
-      <c r="B85">
-        <f t="shared" si="1"/>
+      <c r="B86">
+        <f t="shared" si="6"/>
         <v>830</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <f>1/(4*a)*(5*b*LN(b+$B86)- b*LN($B86) -4*$B86) + k</f>
+      <c r="C86">
+        <f t="shared" si="8"/>
+        <v>108.50490976001251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <f t="shared" si="7"/>
         <v>-8.4103528387458937</v>
       </c>
-      <c r="B86">
-        <f t="shared" si="1"/>
+      <c r="B87">
+        <f t="shared" si="6"/>
         <v>840</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <f>1/(4*a)*(5*b*LN(b+$B87)- b*LN($B87) -4*$B87) + k</f>
+      <c r="C87">
+        <f t="shared" si="8"/>
+        <v>111.41204232143551</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <f t="shared" si="7"/>
         <v>-9.2989719987815533</v>
       </c>
-      <c r="B87">
-        <f t="shared" si="1"/>
+      <c r="B88">
+        <f t="shared" si="6"/>
         <v>850</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <f>1/(4*a)*(5*b*LN(b+$B88)- b*LN($B88) -4*$B88) + k</f>
+      <c r="C88">
+        <f t="shared" si="8"/>
+        <v>114.32591833256944</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <f t="shared" si="7"/>
         <v>-10.183456370259137</v>
       </c>
-      <c r="B88">
-        <f t="shared" si="1"/>
+      <c r="B89">
+        <f t="shared" si="6"/>
         <v>860</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <f>1/(4*a)*(5*b*LN(b+$B89)- b*LN($B89) -4*$B89) + k</f>
+      <c r="C89">
+        <f t="shared" si="8"/>
+        <v>117.2455867556546</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <f t="shared" si="7"/>
         <v>-11.063966097460707</v>
       </c>
-      <c r="B89">
-        <f t="shared" si="1"/>
+      <c r="B90">
+        <f t="shared" si="6"/>
         <v>870</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <f>1/(4*a)*(5*b*LN(b+$B90)- b*LN($B90) -4*$B90) + k</f>
+      <c r="C90">
+        <f t="shared" si="8"/>
+        <v>120.17013376074559</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <f t="shared" si="7"/>
         <v>-11.940655129641527</v>
       </c>
-      <c r="B90">
-        <f t="shared" si="1"/>
+      <c r="B91">
+        <f t="shared" si="6"/>
         <v>880</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <f>1/(4*a)*(5*b*LN(b+$B91)- b*LN($B91) -4*$B91) + k</f>
+      <c r="C91">
+        <f t="shared" si="8"/>
+        <v>123.09868171774824</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <f t="shared" si="7"/>
         <v>-12.813671511255734</v>
       </c>
-      <c r="B91">
-        <f t="shared" si="1"/>
+      <c r="B92">
+        <f t="shared" si="6"/>
         <v>890</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <f>1/(4*a)*(5*b*LN(b+$B92)- b*LN($B92) -4*$B92) + k</f>
+      <c r="C92">
+        <f t="shared" si="8"/>
+        <v>126.03038818288815</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <f t="shared" si="7"/>
         <v>-13.683157655779496</v>
       </c>
-      <c r="B92">
-        <f t="shared" si="1"/>
+      <c r="B93">
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <f>1/(4*a)*(5*b*LN(b+$B93)- b*LN($B93) -4*$B93) + k</f>
+      <c r="C93">
+        <f t="shared" si="8"/>
+        <v>128.96444488405453</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <f t="shared" si="7"/>
         <v>-14.549250604227836</v>
       </c>
-      <c r="B93">
-        <f t="shared" si="1"/>
+      <c r="B94">
+        <f t="shared" si="6"/>
         <v>910</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <f>1/(4*a)*(5*b*LN(b+$B94)- b*LN($B94) -4*$B94) + k</f>
+      <c r="C94">
+        <f t="shared" si="8"/>
+        <v>131.90007670889921</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <f t="shared" si="7"/>
         <v>-15.41208226937033</v>
       </c>
-      <c r="B94">
-        <f t="shared" si="1"/>
+      <c r="B95">
+        <f t="shared" si="6"/>
         <v>920</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <f>1/(4*a)*(5*b*LN(b+$B95)- b*LN($B95) -4*$B95) + k</f>
+      <c r="C95">
+        <f t="shared" si="8"/>
+        <v>134.83654069906555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <f t="shared" si="7"/>
         <v>-16.27177966657905</v>
       </c>
-      <c r="B95">
-        <f t="shared" si="1"/>
+      <c r="B96">
+        <f t="shared" si="6"/>
         <v>930</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <f>1/(4*a)*(5*b*LN(b+$B96)- b*LN($B96) -4*$B96) + k</f>
+      <c r="C96">
+        <f t="shared" si="8"/>
+        <v>137.77312505347106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <f t="shared" si="7"/>
         <v>-17.128465132168913</v>
       </c>
-      <c r="B96">
-        <f t="shared" si="1"/>
+      <c r="B97">
+        <f t="shared" si="6"/>
         <v>940</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <f>1/(4*a)*(5*b*LN(b+$B97)- b*LN($B97) -4*$B97) + k</f>
+      <c r="C97">
+        <f t="shared" si="8"/>
+        <v>140.70914814315515</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <f t="shared" si="7"/>
         <v>-17.982256530030099</v>
       </c>
-      <c r="B97">
-        <f t="shared" si="1"/>
+      <c r="B98">
+        <f t="shared" si="6"/>
         <v>950</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <f>1/(4*a)*(5*b*LN(b+$B98)- b*LN($B98) -4*$B98) + k</f>
+      <c r="C98">
+        <f t="shared" si="8"/>
+        <v>143.64395753984391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <f t="shared" si="7"/>
         <v>-18.833267447286289</v>
       </c>
-      <c r="B98">
-        <f t="shared" si="1"/>
+      <c r="B99">
+        <f t="shared" si="6"/>
         <v>960</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <f>1/(4*a)*(5*b*LN(b+$B99)- b*LN($B99) -4*$B99) + k</f>
+      <c r="C99">
+        <f t="shared" si="8"/>
+        <v>146.57692906005221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <f t="shared" ref="A100:A105" si="9">1/(4*a)*(5*b*LN(b+$B100)- b*LN($B100) -4*$B100) + k</f>
         <v>-19.681607379673551</v>
       </c>
-      <c r="B99">
-        <f t="shared" si="1"/>
+      <c r="B100">
+        <f t="shared" si="6"/>
         <v>970</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <f>1/(4*a)*(5*b*LN(b+$B100)- b*LN($B100) -4*$B100) + k</f>
+      <c r="C100">
+        <f t="shared" ref="C100:C105" si="10">+$C$2*EXP(-L/R_gas/$B100)+$C$1</f>
+        <v>149.50746582625578</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <f t="shared" si="9"/>
         <v>-20.527381907263816</v>
       </c>
-      <c r="B100">
-        <f t="shared" si="1"/>
+      <c r="B101">
+        <f t="shared" si="6"/>
         <v>980</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <f>1/(4*a)*(5*b*LN(b+$B101)- b*LN($B101) -4*$B101) + k</f>
+      <c r="C101">
+        <f t="shared" si="10"/>
+        <v>152.43499734640253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <f t="shared" si="9"/>
         <v>-21.370692861134785</v>
       </c>
-      <c r="B101">
-        <f t="shared" si="1"/>
+      <c r="B102">
+        <f t="shared" si="6"/>
         <v>990</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <f>1/(4*a)*(5*b*LN(b+$B102)- b*LN($B102) -4*$B102) + k</f>
+      <c r="C102">
+        <f t="shared" si="10"/>
+        <v>155.3589786128027</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <f t="shared" si="9"/>
         <v>-22.211638481529235</v>
       </c>
-      <c r="B102">
-        <f t="shared" si="1"/>
+      <c r="B103">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <f>1/(4*a)*(5*b*LN(b+$B103)- b*LN($B103) -4*$B103) + k</f>
+      <c r="C103">
+        <f t="shared" si="10"/>
+        <v>158.27888922123049</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <f t="shared" si="9"/>
         <v>-23.050313568015554</v>
       </c>
-      <c r="B103">
-        <f t="shared" si="1"/>
+      <c r="B104">
+        <f t="shared" si="6"/>
         <v>1010</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <f>1/(4*a)*(5*b*LN(b+$B104)- b*LN($B104) -4*$B104) + k</f>
+      <c r="C104">
+        <f t="shared" si="10"/>
+        <v>161.19423251088793</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <f t="shared" si="9"/>
         <v>-23.886809622124474</v>
       </c>
-      <c r="B104">
-        <f t="shared" si="1"/>
+      <c r="B105">
+        <f t="shared" si="6"/>
         <v>1020</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="10"/>
+        <v>164.10453472571976</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dynamic_context_server/ref/foundation/climate/venera.xlsx
+++ b/dynamic_context_server/ref/foundation/climate/venera.xlsx
@@ -4,33 +4,56 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="17100" windowHeight="13425" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="17100" windowHeight="13425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="venera" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="adiabatic" sheetId="3" r:id="rId3"/>
+    <sheet name="venus_condense" sheetId="4" r:id="rId4"/>
+    <sheet name="mars_condense" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="a" localSheetId="2">adiabatic!$H$11</definedName>
+    <definedName name="a" localSheetId="4">mars_condense!$H$11</definedName>
+    <definedName name="a" localSheetId="3">venus_condense!$I$11</definedName>
     <definedName name="a">Sheet2!$D$10</definedName>
     <definedName name="b" localSheetId="2">adiabatic!$H$12</definedName>
+    <definedName name="b" localSheetId="4">mars_condense!$H$12</definedName>
+    <definedName name="b" localSheetId="3">venus_condense!$I$12</definedName>
     <definedName name="b">Sheet2!$D$11</definedName>
     <definedName name="cc" localSheetId="2">adiabatic!$H$13</definedName>
+    <definedName name="cc" localSheetId="4">mars_condense!$H$13</definedName>
+    <definedName name="cc" localSheetId="3">venus_condense!$I$13</definedName>
     <definedName name="cc">Sheet2!$D$12</definedName>
+    <definedName name="entropy">venus_condense!$I$13</definedName>
     <definedName name="f" localSheetId="2">adiabatic!$H$10</definedName>
+    <definedName name="f" localSheetId="4">mars_condense!$H$10</definedName>
+    <definedName name="f" localSheetId="3">venus_condense!$I$10</definedName>
     <definedName name="f">Sheet2!$D$9</definedName>
     <definedName name="g" localSheetId="2">adiabatic!$H$8</definedName>
+    <definedName name="g" localSheetId="4">mars_condense!$H$8</definedName>
+    <definedName name="g" localSheetId="3">venus_condense!$I$8</definedName>
     <definedName name="g">Sheet2!$D$7</definedName>
     <definedName name="k" localSheetId="2">adiabatic!$H$9</definedName>
+    <definedName name="k" localSheetId="4">mars_condense!$H$9</definedName>
+    <definedName name="k" localSheetId="3">venus_condense!$I$9</definedName>
     <definedName name="k">Sheet2!$D$8</definedName>
     <definedName name="L" localSheetId="2">adiabatic!$H$5</definedName>
+    <definedName name="L" localSheetId="4">mars_condense!$H$5</definedName>
+    <definedName name="L" localSheetId="3">venus_condense!$I$5</definedName>
     <definedName name="L">Sheet2!$D$4</definedName>
     <definedName name="MW" localSheetId="2">adiabatic!$H$7</definedName>
+    <definedName name="MW" localSheetId="4">mars_condense!$H$7</definedName>
+    <definedName name="MW" localSheetId="3">venus_condense!$I$7</definedName>
     <definedName name="MW">Sheet2!$D$6</definedName>
     <definedName name="R_gas" localSheetId="2">adiabatic!$H$6</definedName>
+    <definedName name="R_gas" localSheetId="4">mars_condense!$H$6</definedName>
+    <definedName name="R_gas" localSheetId="3">venus_condense!$I$6</definedName>
     <definedName name="R_gas">Sheet2!$D$5</definedName>
     <definedName name="u" localSheetId="2">adiabatic!$H$4</definedName>
+    <definedName name="u" localSheetId="4">mars_condense!$H$4</definedName>
+    <definedName name="u" localSheetId="3">venus_condense!$I$4</definedName>
     <definedName name="u">Sheet2!$D$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -38,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>ln(T/Ts)</t>
   </si>
@@ -114,12 +137,18 @@
   <si>
     <t>(°K)</t>
   </si>
+  <si>
+    <t>y(x) = 1/2 (-sqrt((a x-c_1)^2+4 b^2)-a x+c_1)</t>
+  </si>
+  <si>
+    <t>VENUS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +164,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,11 +187,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -166,6 +216,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1784,8 +1837,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2434,6 +2487,3032 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30903692773459862"/>
+          <c:y val="3.3927056827820185E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11287886311508359"/>
+          <c:y val="0.1427567737238952"/>
+          <c:w val="0.7939499184223594"/>
+          <c:h val="0.73153787074325638"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>venus_condense!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Condensing Temperature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>venus_condense!$B$4:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>venus_condense!$A$4:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>339.5419077148149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306.71575026070673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277.62739298189848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252.01129803787205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229.54484499864921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209.88073912539141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.67353147585914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>177.59790180440115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>164.35905134404589</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152.69693426333089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>142.38635354526849</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>133.23465389021283</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125.07826271456668</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>117.77887917768089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.21976887264987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105.30239240802814</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.943455899005585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95.072392751244706</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.629246426675195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86.562907173678582</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82.829651683138877</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.391937045552709</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76.217405632271152</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73.278063641215226</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70.549602034275836</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68.010833996949714</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65.643227713629358</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.430517168639199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61.358376917793521</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59.414149418251554</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57.586615649718851</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55.865801494574498</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>54.242813744263685</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52.709700728258667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.259333472898788</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49.885304033427019</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48.581838238213095</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47.343720567274431</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46.166229280014932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45.045080227313974</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.976378044863395</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.956573639259886</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41.982427054818118</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41.050974954607909</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40.159502069591781</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.305516069613304</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38.486725393097686</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37.701019641666107</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>36.946452203925446</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>36.221224821400256</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35.523673850592331</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.852258009744673</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.205547428190584</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33.582213840994882</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32.981021792754291</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32.400820732423199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.840537896460319</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.299171890779235</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30.775786893330405</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.269507408913341</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29.779513516220049</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>29.305036554407707</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28.84535520280906</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>28.399791912852834</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27.967709656046736</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27.548508956022943</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27.141625176274829</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.746526038387856</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.362709348353746</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25.989700910993633</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25.627052614675904</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25.274340670396214</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.931163990966525</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.59714269754113</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24.271916742001395</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>23.955144634902354</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23.646502269692974</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23.345681834858624</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>23.052390806428775</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22.766351014047359</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22.487297774427589</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22.214979086613312</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.949154883977826</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.689596338368574</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.436085212214948</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.188413254804345</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.946381639254923</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20.709800437042759</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.478488127191213</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.252271137496336</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20.030983415386345</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.814466026201899</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>19.602566776890399</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19.395139863257555</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19.192045539080027</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18.993149805520261</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18.798324119402423</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18.607445119040676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="189804544"/>
+        <c:axId val="189806848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="189804544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="189806848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="189806848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Altitude (km)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="189804544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10051651651651652"/>
+          <c:y val="0.8102494440103386"/>
+          <c:w val="0.33732132132132148"/>
+          <c:h val="6.135000300534952E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Clausius-Clayperone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47506855349375032"/>
+          <c:y val="6.4814921390640129E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21473399657378156"/>
+          <c:y val="5.8280943228553123E-2"/>
+          <c:w val="0.71759127414462409"/>
+          <c:h val="0.8834381135428937"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>venus_condense!$F$5:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>venus_condense!$G$5:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>92.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8510000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7650000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7600000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7359999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6599999999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>venus_condense!$B$17:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>venus_condense!$C$17:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>2.448559919289102E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8223918229920621E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6875480329695488E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7813211732327402E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7976379497198814E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4985316031283548E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7110619802662573E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6554005579871587E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6394194915295078E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2047428520734984E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8344634911550146E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7079276019832076E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8882410877463018E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4465491724363914E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4615937505389099E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10019099884924423</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13211024110175068</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17134698355165748</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.21891902467426316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27587896052300975</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34330437124608731</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.422288113221988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.51392891476297753</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61932243417794308</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73955290193861611</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87568543487467743</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0287590803665503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1997806226788412</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3897191618768352</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5995014580109659</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8300080191287245</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0820699008120922</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3564661769353168</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6539220357874496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9751074522235355</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3206363847286404</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6910664458786679</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0868989953757504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5085796063636758</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9564988578854301</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4309934089451612</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.9323473125329746</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.4607935310387994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.0165156176291168</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.5996495312999199</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.2102855564065784</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.8484703004463636</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.5142087467061494</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.207466341076307</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.928171094826162</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.676215687474036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.451459556014207</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.253730958738585</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.082829003653927</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.938525633128885</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.82056755784153</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.728678134407392</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.662559182215752</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.621892736036575</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.606342731852976</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.61555662418472</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.649166933829893</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22.706792725581877</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23.788041015972961</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>24.892508111534237</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26.019780878457937</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27.169437944827241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>vapor pressure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>venus_condense!$F$5:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>venus_condense!$H$5:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>157.09342536543926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.41402913560805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.332254770833785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.876180643791386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.995155123505789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.902075947137646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.197193845706611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.340571528205178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1986432444770054</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2793621078311341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4631962837611123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35581159386778871</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3871443561985032E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1901903350829507E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5531620908728224E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6197254664122325E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4389078056217588E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3639582716713741E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4398300712652489E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="193472768"/>
+        <c:axId val="193480192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="193472768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193480192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="193480192"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+          <c:min val="1.0000000000000003E-5"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193472768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4964163012557562"/>
+          <c:y val="0.19096203525740385"/>
+          <c:w val="0.39205683121945084"/>
+          <c:h val="0.28291979250625165"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30688288288288323"/>
+          <c:y val="3.3927056827820185E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11287886311508354"/>
+          <c:y val="0.1427567737238952"/>
+          <c:w val="0.79394991842235962"/>
+          <c:h val="0.73153787074325638"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mars_condense!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Condensing Temperature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mars_condense!$B$4:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mars_condense!$A$4:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>192.66321138802158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.71360047646823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144.53781974919286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123.50490807415484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.93114951377434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.994286060147886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.673953347730546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.758922587068284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.915848766576957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.77436334207782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.989039613171769</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.268295319348908</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.379500824585364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.142473773848366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.419451542105946</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.105399542714423</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.119977132390773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.401320253639199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.901384396710768</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.582505563275447</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.414870974413418</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.374655575454426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.442641995052043</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.603191281816635</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.843469006473811</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.152858345292657</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.522511057039651</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.945000960561458</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.41405423645125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.924337791215351</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.471291869015033</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.050996657345479</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.660065215209556</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.295556938694403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.954907167456156</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.6358695656555824</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.3364686807607313</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.054960663326824</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.7898005705261539</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.5396150119984213</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.303179154797931</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.0793973040681522</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.8672864317220501</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.6659621473793322</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.474626701936586</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.2925586903364774</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.1191041808079945</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.9536690464789217</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.7957123143938816</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.6447403786307859</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.500301949925074</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.3619836351967933</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.2294060575786716</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.1022204416933619</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.9801056006222097</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.8627652707012885</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7499257483519841</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.6413337898878808</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.5367547408942528</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.4359708665157314</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3387798580009758</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.2449934942341088</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.1544364398621383</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.0669451640698071</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.9823669661443546</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9005590957528966</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.8213879573930853</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.7447283897882926</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.670463012138498</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.5984816301154297</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.5286806953436098</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.4609628128403074</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.3952362915365484</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.3314147335504458</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.2694166583821698</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.2091651586165426</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.1505875841044144</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0936152519136613</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.038183179633279</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.9842298398730236</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.9316969340181913</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.8805291835060416</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.8306741370622603</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.7820819924934312</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.7347054317717721</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.6884994682702654</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6434213051186362</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.5994302037495345</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5564873617865942</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.5145557995163017</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.473600254242001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.4335870818958938</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.3944841653290041</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.3562608287616058</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.318887757912762</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.2823369253803776</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.246581520865675</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.2115958858880731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="259296640"/>
+        <c:axId val="258795008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="259296640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="320"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="258795008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="258795008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Altitude (km)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="259296640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10051651651651652"/>
+          <c:y val="0.8102494440103386"/>
+          <c:w val="0.33732132132132164"/>
+          <c:h val="6.135000300534952E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Clausius-Clayperone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36318044619422607"/>
+          <c:y val="6.4814814814814894E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21473399657378162"/>
+          <c:y val="5.8280943228553116E-2"/>
+          <c:w val="0.71759127414462431"/>
+          <c:h val="0.8834381135428937"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mars_condense!$F$5:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mars_condense!$G$5:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>92.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8510000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7650000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7600000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7359999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6599999999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mars_condense!$B$17:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mars_condense!$C$17:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>22.102928159666376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.24311412748121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.024870589115203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.374131980585197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.216619494217149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.480553984502798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.09834803772479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.007557516047598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.151314222670536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.478407304512757</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103.94313623178964</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>113.50502317380806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123.12844617906175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>132.7822351436667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>142.43925853638783</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>152.07601889469953</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161.67226814109361</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>171.2106489691073</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.67636529905633</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190.05688265201562</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>199.34165790908941</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>208.52189707552893</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>217.59033918768543</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>226.5410642659435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>235.3693231450429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>244.07138704615562</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>252.64441485233252</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>261.0863361829409</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>269.39574851481092</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>277.5718267557645</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>285.61424383205679</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>293.52310100023959</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>301.29886673313354</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>308.94232315778089</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>316.45451913973852</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>323.83672921323256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>331.0904176508285</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>338.21720705023847</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>345.21885089037346</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>352.09720957476037</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>358.85422953862491</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>365.4919250473335</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>372.01236235902599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>378.41764596402078</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>384.70990664843856</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>390.89129116018705</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>396.96395328226373</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>402.93004614203568</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>408.7917156057631</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>414.55109462592043</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>420.21029842470443</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>425.77142041122477</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>431.23652874213673</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>436.6076634462309</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>441.88683404308222</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>447.07601759411426</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>452.17715713182588</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>457.19216041937182</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>462.12289899835559</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>466.97120748772045</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>471.73888310100665</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>476.4276853531191</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>481.03933593125095</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>485.57551870747602</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>490.03787987337444</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>494.42802817922131</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>498.74753526251476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="262224128"/>
+        <c:axId val="262766592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="262224128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="262766592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262766592"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="262224128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46847222222222223"/>
+          <c:y val="0.21720873432487611"/>
+          <c:w val="0.15652777777777779"/>
+          <c:h val="0.16743438320209986"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2597,6 +5676,183 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>77384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9544050" y="3067050"/>
+          <a:ext cx="3943350" cy="3506384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4995,8 +8251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6783,4 +10039,3688 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="14" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="C1">
+        <v>700</v>
+      </c>
+      <c r="H1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30.75" thickBot="1">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="30.75" thickBot="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <f>1/8*(SQRT((4*a*$B4-k)^2+16*f*(b)^2)- 4*a*$B4 + k)</f>
+        <v>339.5419077148149</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f>+$C$2*EXP(-L/R_gas/$B4-MW*g*$A17/$C$1/R_gas)</f>
+        <v>3.5188219910352299E-81</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <f>1/8*(SQRT((4*a*$B5-k)^2+16*f*(b)^2)- 4*a*$B5 + k)</f>
+        <v>306.71575026070673</v>
+      </c>
+      <c r="B5">
+        <f>+$B4+$B$2</f>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f>+$C$2*EXP(-L/R_gas/$B5-MW*g*$A18/$C$1/R_gas)</f>
+        <v>5.8125342559515963E-41</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>462</v>
+      </c>
+      <c r="F5" s="1">
+        <f>273+$E5</f>
+        <v>735</v>
+      </c>
+      <c r="G5" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H18" si="0">(10^(6.760956-1284.07/($F5-4.718)+0.0001256*($F5-143.15))/$H$1)</f>
+        <v>157.09342536543926</v>
+      </c>
+      <c r="I5">
+        <v>15326</v>
+      </c>
+      <c r="J5">
+        <v>15326</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <f>1/8*(SQRT((4*a*$B6-k)^2+16*f*(b)^2)- 4*a*$B6 + k)</f>
+        <v>277.62739298189848</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B69" si="1">+$B5+$B$2</f>
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <f>+$C$2*EXP(-L/R_gas/$B6-MW*g*$A19/$C$1/R_gas)</f>
+        <v>1.8964025189063649E-27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>424</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F22" si="2">273+$E6</f>
+        <v>697</v>
+      </c>
+      <c r="G6" s="1">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>124.41402913560805</v>
+      </c>
+      <c r="I6">
+        <v>8.3140000000000001</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <f>1/8*(SQRT((4*a*$B7-k)^2+16*f*(b)^2)- 4*a*$B7 + k)</f>
+        <v>252.01129803787205</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <f>+$C$2*EXP(-L/R_gas/$B7-MW*g*$A20/$C$1/R_gas)</f>
+        <v>1.2703372939207577E-20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>385</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>658</v>
+      </c>
+      <c r="G7" s="1">
+        <v>47.39</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>95.332254770833785</v>
+      </c>
+      <c r="I7">
+        <v>43.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <f>1/8*(SQRT((4*a*$B8-k)^2+16*f*(b)^2)- 4*a*$B8 + k)</f>
+        <v>229.54484499864921</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <f>+$C$2*EXP(-L/R_gas/$B8-MW*g*$A21/$C$1/R_gas)</f>
+        <v>1.7670578472329933E-16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>348</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>621</v>
+      </c>
+      <c r="G8" s="1">
+        <v>33.04</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>71.876180643791386</v>
+      </c>
+      <c r="I8">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="J8">
+        <f>8.87</f>
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <f>1/8*(SQRT((4*a*$B9-k)^2+16*f*(b)^2)- 4*a*$B9 + k)</f>
+        <v>209.88073912539141</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <f>+$C$2*EXP(-L/R_gas/$B9-MW*g*$A22/$C$1/R_gas)</f>
+        <v>1.1064948812923769E-13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>306</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>579</v>
+      </c>
+      <c r="G9" s="1">
+        <v>22.52</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>49.995155123505789</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-500</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <f>1/8*(SQRT((4*a*$B10-k)^2+16*f*(b)^2)- 4*a*$B10 + k)</f>
+        <v>192.67353147585914</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <f>+$C$2*EXP(-L/R_gas/$B10-MW*g*$A23/$C$1/R_gas)</f>
+        <v>1.1676947664993829E-11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>264</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>537</v>
+      </c>
+      <c r="G10" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>32.902075947137646</v>
+      </c>
+      <c r="I10">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <f>1/8*(SQRT((4*a*$B11-k)^2+16*f*(b)^2)- 4*a*$B11 + k)</f>
+        <v>177.59790180440115</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <f>+$C$2*EXP(-L/R_gas/$B11-MW*g*$A24/$C$1/R_gas)</f>
+        <v>4.0231994951514824E-10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>222</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>495</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.8510000000000009</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>20.197193845706611</v>
+      </c>
+      <c r="I11">
+        <f>f*g*MW/R_gas</f>
+        <v>7.7455135915323545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <f>1/8*(SQRT((4*a*$B12-k)^2+16*f*(b)^2)- 4*a*$B12 + k)</f>
+        <v>164.35905134404589</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <f>+$C$2*EXP(-L/R_gas/$B12-MW*g*$A25/$C$1/R_gas)</f>
+        <v>6.5403836756990301E-9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>180</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.9169999999999998</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>11.340571528205178</v>
+      </c>
+      <c r="I12">
+        <f>L*u/R_gas</f>
+        <v>1843.396680298292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <f>1/8*(SQRT((4*a*$B13-k)^2+16*f*(b)^2)- 4*a*$B13 + k)</f>
+        <v>152.69693426333089</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f>+$C$2*EXP(-L/R_gas/$B13-MW*g*$A26/$C$1/R_gas)</f>
+        <v>6.2612934225166495E-8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>143</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1986432444770054</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <f>1/8*(SQRT((4*a*$B14-k)^2+16*f*(b)^2)- 4*a*$B14 + k)</f>
+        <v>142.38635354526849</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <f>+$C$2*EXP(-L/R_gas/$B14-MW*g*$A27/$C$1/R_gas)</f>
+        <v>4.0664082213102066E-7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1">
+        <v>110</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>383</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2793621078311341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <f>1/8*(SQRT((4*a*$B15-k)^2+16*f*(b)^2)- 4*a*$B15 + k)</f>
+        <v>133.23465389021283</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <f>+$C$2*EXP(-L/R_gas/$B15-MW*g*$A28/$C$1/R_gas)</f>
+        <v>1.96960011819492E-6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4631962837611123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <f>1/8*(SQRT((4*a*$B16-k)^2+16*f*(b)^2)- 4*a*$B16 + k)</f>
+        <v>125.07826271456668</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="C16">
+        <f>+$C$2*EXP(-L/R_gas/$B16-MW*g*$A29/$C$1/R_gas)</f>
+        <v>7.5992091363580316E-6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35581159386778871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <f>1/8*(SQRT((4*a*$B17-k)^2+16*f*(b)^2)- 4*a*$B17 + k)</f>
+        <v>117.77887917768089</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <f>+$C$2*EXP(-L/R_gas/$B17-MW*g*$A30/$C$1/R_gas)</f>
+        <v>2.448559919289102E-5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3">
+        <f>-10</f>
+        <v>-10</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3871443561985032E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <f>1/8*(SQRT((4*a*$B18-k)^2+16*f*(b)^2)- 4*a*$B18 + k)</f>
+        <v>111.21976887264987</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <f>+$C$2*EXP(-L/R_gas/$B18-MW*g*$A31/$C$1/R_gas)</f>
+        <v>6.8223918229920621E-5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-30</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.7650000000000001E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1901903350829507E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <f>1/8*(SQRT((4*a*$B19-k)^2+16*f*(b)^2)- 4*a*$B19 + k)</f>
+        <v>105.30239240802814</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="C19">
+        <f>+$C$2*EXP(-L/R_gas/$B19-MW*g*$A32/$C$1/R_gas)</f>
+        <v>1.6875480329695488E-4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-43</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <f>(10^(6.760956-1284.07/($F19-4.718)+0.0001256*($F19-143.15))/$H$1)</f>
+        <v>1.5531620908728224E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <f>1/8*(SQRT((4*a*$B20-k)^2+16*f*(b)^2)- 4*a*$B20 + k)</f>
+        <v>99.943455899005585</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="C20">
+        <f>+$C$2*EXP(-L/R_gas/$B20-MW*g*$A33/$C$1/R_gas)</f>
+        <v>3.7813211732327402E-4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>80</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-76</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.7600000000000003E-3</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H6:H23" si="3">(10^(3.128082-867.2124/$F20+0.01865612*$F20-0.0000724882*($F20)^2+0.000000093*($F20)^3))/$H$1</f>
+        <v>2.6197254664122325E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <f>1/8*(SQRT((4*a*$B21-k)^2+16*f*(b)^2)- 4*a*$B21 + k)</f>
+        <v>95.072392751244706</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="C21">
+        <f>+$C$2*EXP(-L/R_gas/$B21-MW*g*$A34/$C$1/R_gas)</f>
+        <v>7.7976379497198814E-4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>90</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-104</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.7359999999999997E-4</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4389078056217588E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <f>1/8*(SQRT((4*a*$B22-k)^2+16*f*(b)^2)- 4*a*$B22 + k)</f>
+        <v>90.629246426675195</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="C22">
+        <f>+$C$2*EXP(-L/R_gas/$B22-MW*g*$A35/$C$1/R_gas)</f>
+        <v>1.4985316031283548E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-112</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.6599999999999999E-5</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3639582716713741E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <f>1/8*(SQRT((4*a*$B23-k)^2+16*f*(b)^2)- 4*a*$B23 + k)</f>
+        <v>86.562907173678582</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="C23">
+        <f>+$C$2*EXP(-L/R_gas/$B23-MW*g*$A36/$C$1/R_gas)</f>
+        <v>2.7110619802662573E-3</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4398300712652489E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <f>1/8*(SQRT((4*a*$B24-k)^2+16*f*(b)^2)- 4*a*$B24 + k)</f>
+        <v>82.829651683138877</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="C24">
+        <f>+$C$2*EXP(-L/R_gas/$B24-MW*g*$A37/$C$1/R_gas)</f>
+        <v>4.6554005579871587E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <f>1/8*(SQRT((4*a*$B25-k)^2+16*f*(b)^2)- 4*a*$B25 + k)</f>
+        <v>79.391937045552709</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="C25">
+        <f>+$C$2*EXP(-L/R_gas/$B25-MW*g*$A38/$C$1/R_gas)</f>
+        <v>7.6394194915295078E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <f>1/8*(SQRT((4*a*$B26-k)^2+16*f*(b)^2)- 4*a*$B26 + k)</f>
+        <v>76.217405632271152</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="C26">
+        <f>+$C$2*EXP(-L/R_gas/$B26-MW*g*$A39/$C$1/R_gas)</f>
+        <v>1.2047428520734984E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <f>1/8*(SQRT((4*a*$B27-k)^2+16*f*(b)^2)- 4*a*$B27 + k)</f>
+        <v>73.278063641215226</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="C27">
+        <f>+$C$2*EXP(-L/R_gas/$B27-MW*g*$A40/$C$1/R_gas)</f>
+        <v>1.8344634911550146E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <f>1/8*(SQRT((4*a*$B28-k)^2+16*f*(b)^2)- 4*a*$B28 + k)</f>
+        <v>70.549602034275836</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="C28">
+        <f>+$C$2*EXP(-L/R_gas/$B28-MW*g*$A41/$C$1/R_gas)</f>
+        <v>2.7079276019832076E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <f>1/8*(SQRT((4*a*$B29-k)^2+16*f*(b)^2)- 4*a*$B29 + k)</f>
+        <v>68.010833996949714</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="C29">
+        <f>+$C$2*EXP(-L/R_gas/$B29-MW*g*$A42/$C$1/R_gas)</f>
+        <v>3.8882410877463018E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <f>1/8*(SQRT((4*a*$B30-k)^2+16*f*(b)^2)- 4*a*$B30 + k)</f>
+        <v>65.643227713629358</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="C30">
+        <f>+$C$2*EXP(-L/R_gas/$B30-MW*g*$A43/$C$1/R_gas)</f>
+        <v>5.4465491724363914E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <f>1/8*(SQRT((4*a*$B31-k)^2+16*f*(b)^2)- 4*a*$B31 + k)</f>
+        <v>63.430517168639199</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="C31">
+        <f>+$C$2*EXP(-L/R_gas/$B31-MW*g*$A44/$C$1/R_gas)</f>
+        <v>7.4615937505389099E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <f>1/8*(SQRT((4*a*$B32-k)^2+16*f*(b)^2)- 4*a*$B32 + k)</f>
+        <v>61.358376917793521</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="C32">
+        <f>+$C$2*EXP(-L/R_gas/$B32-MW*g*$A45/$C$1/R_gas)</f>
+        <v>0.10019099884924423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <f>1/8*(SQRT((4*a*$B33-k)^2+16*f*(b)^2)- 4*a*$B33 + k)</f>
+        <v>59.414149418251554</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="C33">
+        <f>+$C$2*EXP(-L/R_gas/$B33-MW*g*$A46/$C$1/R_gas)</f>
+        <v>0.13211024110175068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <f>1/8*(SQRT((4*a*$B34-k)^2+16*f*(b)^2)- 4*a*$B34 + k)</f>
+        <v>57.586615649718851</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="C34">
+        <f>+$C$2*EXP(-L/R_gas/$B34-MW*g*$A47/$C$1/R_gas)</f>
+        <v>0.17134698355165748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <f>1/8*(SQRT((4*a*$B35-k)^2+16*f*(b)^2)- 4*a*$B35 + k)</f>
+        <v>55.865801494574498</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="C35">
+        <f>+$C$2*EXP(-L/R_gas/$B35-MW*g*$A48/$C$1/R_gas)</f>
+        <v>0.21891902467426316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <f>1/8*(SQRT((4*a*$B36-k)^2+16*f*(b)^2)- 4*a*$B36 + k)</f>
+        <v>54.242813744263685</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="C36">
+        <f>+$C$2*EXP(-L/R_gas/$B36-MW*g*$A49/$C$1/R_gas)</f>
+        <v>0.27587896052300975</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <f>1/8*(SQRT((4*a*$B37-k)^2+16*f*(b)^2)- 4*a*$B37 + k)</f>
+        <v>52.709700728258667</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="C37">
+        <f>+$C$2*EXP(-L/R_gas/$B37-MW*g*$A50/$C$1/R_gas)</f>
+        <v>0.34330437124608731</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <f>1/8*(SQRT((4*a*$B38-k)^2+16*f*(b)^2)- 4*a*$B38 + k)</f>
+        <v>51.259333472898788</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="C38">
+        <f>+$C$2*EXP(-L/R_gas/$B38-MW*g*$A51/$C$1/R_gas)</f>
+        <v>0.422288113221988</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <f>1/8*(SQRT((4*a*$B39-k)^2+16*f*(b)^2)- 4*a*$B39 + k)</f>
+        <v>49.885304033427019</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="C39">
+        <f>+$C$2*EXP(-L/R_gas/$B39-MW*g*$A52/$C$1/R_gas)</f>
+        <v>0.51392891476297753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <f>1/8*(SQRT((4*a*$B40-k)^2+16*f*(b)^2)- 4*a*$B40 + k)</f>
+        <v>48.581838238213095</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="C40">
+        <f>+$C$2*EXP(-L/R_gas/$B40-MW*g*$A53/$C$1/R_gas)</f>
+        <v>0.61932243417794308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <f>1/8*(SQRT((4*a*$B41-k)^2+16*f*(b)^2)- 4*a*$B41 + k)</f>
+        <v>47.343720567274431</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="C41">
+        <f>+$C$2*EXP(-L/R_gas/$B41-MW*g*$A54/$C$1/R_gas)</f>
+        <v>0.73955290193861611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <f>1/8*(SQRT((4*a*$B42-k)^2+16*f*(b)^2)- 4*a*$B42 + k)</f>
+        <v>46.166229280014932</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="C42">
+        <f>+$C$2*EXP(-L/R_gas/$B42-MW*g*$A55/$C$1/R_gas)</f>
+        <v>0.87568543487467743</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <f>1/8*(SQRT((4*a*$B43-k)^2+16*f*(b)^2)- 4*a*$B43 + k)</f>
+        <v>45.045080227313974</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="C43">
+        <f>+$C$2*EXP(-L/R_gas/$B43-MW*g*$A56/$C$1/R_gas)</f>
+        <v>1.0287590803665503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <f>1/8*(SQRT((4*a*$B44-k)^2+16*f*(b)^2)- 4*a*$B44 + k)</f>
+        <v>43.976378044863395</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="C44">
+        <f>+$C$2*EXP(-L/R_gas/$B44-MW*g*$A57/$C$1/R_gas)</f>
+        <v>1.1997806226788412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <f>1/8*(SQRT((4*a*$B45-k)^2+16*f*(b)^2)- 4*a*$B45 + k)</f>
+        <v>42.956573639259886</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="C45">
+        <f>+$C$2*EXP(-L/R_gas/$B45-MW*g*$A58/$C$1/R_gas)</f>
+        <v>1.3897191618768352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <f>1/8*(SQRT((4*a*$B46-k)^2+16*f*(b)^2)- 4*a*$B46 + k)</f>
+        <v>41.982427054818118</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+      <c r="C46">
+        <f>+$C$2*EXP(-L/R_gas/$B46-MW*g*$A59/$C$1/R_gas)</f>
+        <v>1.5995014580109659</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <f>1/8*(SQRT((4*a*$B47-k)^2+16*f*(b)^2)- 4*a*$B47 + k)</f>
+        <v>41.050974954607909</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="C47">
+        <f>+$C$2*EXP(-L/R_gas/$B47-MW*g*$A60/$C$1/R_gas)</f>
+        <v>1.8300080191287245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <f>1/8*(SQRT((4*a*$B48-k)^2+16*f*(b)^2)- 4*a*$B48 + k)</f>
+        <v>40.159502069591781</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="C48">
+        <f>+$C$2*EXP(-L/R_gas/$B48-MW*g*$A61/$C$1/R_gas)</f>
+        <v>2.0820699008120922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <f>1/8*(SQRT((4*a*$B49-k)^2+16*f*(b)^2)- 4*a*$B49 + k)</f>
+        <v>39.305516069613304</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="C49">
+        <f>+$C$2*EXP(-L/R_gas/$B49-MW*g*$A62/$C$1/R_gas)</f>
+        <v>2.3564661769353168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <f>1/8*(SQRT((4*a*$B50-k)^2+16*f*(b)^2)- 4*a*$B50 + k)</f>
+        <v>38.486725393097686</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>470</v>
+      </c>
+      <c r="C50">
+        <f>+$C$2*EXP(-L/R_gas/$B50-MW*g*$A63/$C$1/R_gas)</f>
+        <v>2.6539220357874496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <f>1/8*(SQRT((4*a*$B51-k)^2+16*f*(b)^2)- 4*a*$B51 + k)</f>
+        <v>37.701019641666107</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="C51">
+        <f>+$C$2*EXP(-L/R_gas/$B51-MW*g*$A64/$C$1/R_gas)</f>
+        <v>2.9751074522235355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <f>1/8*(SQRT((4*a*$B52-k)^2+16*f*(b)^2)- 4*a*$B52 + k)</f>
+        <v>36.946452203925446</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="C52">
+        <f>+$C$2*EXP(-L/R_gas/$B52-MW*g*$A65/$C$1/R_gas)</f>
+        <v>3.3206363847286404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <f>1/8*(SQRT((4*a*$B53-k)^2+16*f*(b)^2)- 4*a*$B53 + k)</f>
+        <v>36.221224821400256</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="C53">
+        <f>+$C$2*EXP(-L/R_gas/$B53-MW*g*$A66/$C$1/R_gas)</f>
+        <v>3.6910664458786679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <f>1/8*(SQRT((4*a*$B54-k)^2+16*f*(b)^2)- 4*a*$B54 + k)</f>
+        <v>35.523673850592331</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="C54">
+        <f>+$C$2*EXP(-L/R_gas/$B54-MW*g*$A67/$C$1/R_gas)</f>
+        <v>4.0868989953757504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <f>1/8*(SQRT((4*a*$B55-k)^2+16*f*(b)^2)- 4*a*$B55 + k)</f>
+        <v>34.852258009744673</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+      <c r="C55">
+        <f>+$C$2*EXP(-L/R_gas/$B55-MW*g*$A68/$C$1/R_gas)</f>
+        <v>4.5085796063636758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <f>1/8*(SQRT((4*a*$B56-k)^2+16*f*(b)^2)- 4*a*$B56 + k)</f>
+        <v>34.205547428190584</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+      <c r="C56">
+        <f>+$C$2*EXP(-L/R_gas/$B56-MW*g*$A69/$C$1/R_gas)</f>
+        <v>4.9564988578854301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <f>1/8*(SQRT((4*a*$B57-k)^2+16*f*(b)^2)- 4*a*$B57 + k)</f>
+        <v>33.582213840994882</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="C57">
+        <f>+$C$2*EXP(-L/R_gas/$B57-MW*g*$A70/$C$1/R_gas)</f>
+        <v>5.4309934089451612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <f>1/8*(SQRT((4*a*$B58-k)^2+16*f*(b)^2)- 4*a*$B58 + k)</f>
+        <v>32.981021792754291</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="C58">
+        <f>+$C$2*EXP(-L/R_gas/$B58-MW*g*$A71/$C$1/R_gas)</f>
+        <v>5.9323473125329746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <f>1/8*(SQRT((4*a*$B59-k)^2+16*f*(b)^2)- 4*a*$B59 + k)</f>
+        <v>32.400820732423199</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="C59">
+        <f>+$C$2*EXP(-L/R_gas/$B59-MW*g*$A72/$C$1/R_gas)</f>
+        <v>6.4607935310387994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <f>1/8*(SQRT((4*a*$B60-k)^2+16*f*(b)^2)- 4*a*$B60 + k)</f>
+        <v>31.840537896460319</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="C60">
+        <f>+$C$2*EXP(-L/R_gas/$B60-MW*g*$A73/$C$1/R_gas)</f>
+        <v>7.0165156176291168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <f>1/8*(SQRT((4*a*$B61-k)^2+16*f*(b)^2)- 4*a*$B61 + k)</f>
+        <v>31.299171890779235</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
+      <c r="C61">
+        <f>+$C$2*EXP(-L/R_gas/$B61-MW*g*$A74/$C$1/R_gas)</f>
+        <v>7.5996495312999199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <f>1/8*(SQRT((4*a*$B62-k)^2+16*f*(b)^2)- 4*a*$B62 + k)</f>
+        <v>30.775786893330405</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
+      <c r="C62">
+        <f>+$C$2*EXP(-L/R_gas/$B62-MW*g*$A75/$C$1/R_gas)</f>
+        <v>8.2102855564065784</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <f>1/8*(SQRT((4*a*$B63-k)^2+16*f*(b)^2)- 4*a*$B63 + k)</f>
+        <v>30.269507408913341</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="C63">
+        <f>+$C$2*EXP(-L/R_gas/$B63-MW*g*$A76/$C$1/R_gas)</f>
+        <v>8.8484703004463636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <f>1/8*(SQRT((4*a*$B64-k)^2+16*f*(b)^2)- 4*a*$B64 + k)</f>
+        <v>29.779513516220049</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>610</v>
+      </c>
+      <c r="C64">
+        <f>+$C$2*EXP(-L/R_gas/$B64-MW*g*$A77/$C$1/R_gas)</f>
+        <v>9.5142087467061494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <f>1/8*(SQRT((4*a*$B65-k)^2+16*f*(b)^2)- 4*a*$B65 + k)</f>
+        <v>29.305036554407707</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>620</v>
+      </c>
+      <c r="C65">
+        <f>+$C$2*EXP(-L/R_gas/$B65-MW*g*$A78/$C$1/R_gas)</f>
+        <v>10.207466341076307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <f>1/8*(SQRT((4*a*$B66-k)^2+16*f*(b)^2)- 4*a*$B66 + k)</f>
+        <v>28.84535520280906</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="C66">
+        <f>+$C$2*EXP(-L/R_gas/$B66-MW*g*$A79/$C$1/R_gas)</f>
+        <v>10.928171094826162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <f>1/8*(SQRT((4*a*$B67-k)^2+16*f*(b)^2)- 4*a*$B67 + k)</f>
+        <v>28.399791912852834</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="C67">
+        <f>+$C$2*EXP(-L/R_gas/$B67-MW*g*$A80/$C$1/R_gas)</f>
+        <v>11.676215687474036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <f>1/8*(SQRT((4*a*$B68-k)^2+16*f*(b)^2)- 4*a*$B68 + k)</f>
+        <v>27.967709656046736</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="C68">
+        <f>+$C$2*EXP(-L/R_gas/$B68-MW*g*$A81/$C$1/R_gas)</f>
+        <v>12.451459556014207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <f>1/8*(SQRT((4*a*$B69-k)^2+16*f*(b)^2)- 4*a*$B69 + k)</f>
+        <v>27.548508956022943</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="C69">
+        <f>+$C$2*EXP(-L/R_gas/$B69-MW*g*$A82/$C$1/R_gas)</f>
+        <v>13.253730958738585</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <f>1/8*(SQRT((4*a*$B70-k)^2+16*f*(b)^2)- 4*a*$B70 + k)</f>
+        <v>27.141625176274829</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70:B105" si="4">+$B69+$B$2</f>
+        <v>670</v>
+      </c>
+      <c r="C70">
+        <f>+$C$2*EXP(-L/R_gas/$B70-MW*g*$A83/$C$1/R_gas)</f>
+        <v>14.082829003653927</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <f>1/8*(SQRT((4*a*$B71-k)^2+16*f*(b)^2)- 4*a*$B71 + k)</f>
+        <v>26.746526038387856</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="C71">
+        <f>+$C$2*EXP(-L/R_gas/$B71-MW*g*$A84/$C$1/R_gas)</f>
+        <v>14.938525633128885</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <f>1/8*(SQRT((4*a*$B72-k)^2+16*f*(b)^2)- 4*a*$B72 + k)</f>
+        <v>26.362709348353746</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="4"/>
+        <v>690</v>
+      </c>
+      <c r="C72">
+        <f>+$C$2*EXP(-L/R_gas/$B72-MW*g*$A85/$C$1/R_gas)</f>
+        <v>15.82056755784153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <f>1/8*(SQRT((4*a*$B73-k)^2+16*f*(b)^2)- 4*a*$B73 + k)</f>
+        <v>25.989700910993633</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="C73">
+        <f>+$C$2*EXP(-L/R_gas/$B73-MW*g*$A86/$C$1/R_gas)</f>
+        <v>16.728678134407392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <f>1/8*(SQRT((4*a*$B74-k)^2+16*f*(b)^2)- 4*a*$B74 + k)</f>
+        <v>25.627052614675904</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>710</v>
+      </c>
+      <c r="C74">
+        <f>+$C$2*EXP(-L/R_gas/$B74-MW*g*$A87/$C$1/R_gas)</f>
+        <v>17.662559182215752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <f>1/8*(SQRT((4*a*$B75-k)^2+16*f*(b)^2)- 4*a*$B75 + k)</f>
+        <v>25.274340670396214</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="C75">
+        <f>+$C$2*EXP(-L/R_gas/$B75-MW*g*$A88/$C$1/R_gas)</f>
+        <v>18.621892736036575</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <f>1/8*(SQRT((4*a*$B76-k)^2+16*f*(b)^2)- 4*a*$B76 + k)</f>
+        <v>24.931163990966525</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>730</v>
+      </c>
+      <c r="C76">
+        <f>+$C$2*EXP(-L/R_gas/$B76-MW*g*$A89/$C$1/R_gas)</f>
+        <v>19.606342731852976</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <f>1/8*(SQRT((4*a*$B77-k)^2+16*f*(b)^2)- 4*a*$B77 + k)</f>
+        <v>24.59714269754113</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>740</v>
+      </c>
+      <c r="C77">
+        <f>+$C$2*EXP(-L/R_gas/$B77-MW*g*$A90/$C$1/R_gas)</f>
+        <v>20.61555662418472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <f>1/8*(SQRT((4*a*$B78-k)^2+16*f*(b)^2)- 4*a*$B78 + k)</f>
+        <v>24.271916742001395</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+      <c r="C78">
+        <f>+$C$2*EXP(-L/R_gas/$B78-MW*g*$A91/$C$1/R_gas)</f>
+        <v>21.649166933829893</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <f>1/8*(SQRT((4*a*$B79-k)^2+16*f*(b)^2)- 4*a*$B79 + k)</f>
+        <v>23.955144634902354</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="4"/>
+        <v>760</v>
+      </c>
+      <c r="C79">
+        <f>+$C$2*EXP(-L/R_gas/$B79-MW*g*$A92/$C$1/R_gas)</f>
+        <v>22.706792725581877</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <f>1/8*(SQRT((4*a*$B80-k)^2+16*f*(b)^2)- 4*a*$B80 + k)</f>
+        <v>23.646502269692974</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="4"/>
+        <v>770</v>
+      </c>
+      <c r="C80">
+        <f>+$C$2*EXP(-L/R_gas/$B80-MW*g*$A93/$C$1/R_gas)</f>
+        <v>23.788041015972961</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <f>1/8*(SQRT((4*a*$B81-k)^2+16*f*(b)^2)- 4*a*$B81 + k)</f>
+        <v>23.345681834858624</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="4"/>
+        <v>780</v>
+      </c>
+      <c r="C81">
+        <f>+$C$2*EXP(-L/R_gas/$B81-MW*g*$A94/$C$1/R_gas)</f>
+        <v>24.892508111534237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <f>1/8*(SQRT((4*a*$B82-k)^2+16*f*(b)^2)- 4*a*$B82 + k)</f>
+        <v>23.052390806428775</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="4"/>
+        <v>790</v>
+      </c>
+      <c r="C82">
+        <f>+$C$2*EXP(-L/R_gas/$B82-MW*g*$A95/$C$1/R_gas)</f>
+        <v>26.019780878457937</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <f>1/8*(SQRT((4*a*$B83-k)^2+16*f*(b)^2)- 4*a*$B83 + k)</f>
+        <v>22.766351014047359</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="C83">
+        <f>+$C$2*EXP(-L/R_gas/$B83-MW*g*$A96/$C$1/R_gas)</f>
+        <v>27.169437944827241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <f>1/8*(SQRT((4*a*$B84-k)^2+16*f*(b)^2)- 4*a*$B84 + k)</f>
+        <v>22.487297774427589</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
+        <v>810</v>
+      </c>
+      <c r="C84">
+        <f>+$C$2*EXP(-L/R_gas/$B84-MW*g*$A97/$C$1/R_gas)</f>
+        <v>28.341050836863509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <f>1/8*(SQRT((4*a*$B85-k)^2+16*f*(b)^2)- 4*a*$B85 + k)</f>
+        <v>22.214979086613312</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
+        <v>820</v>
+      </c>
+      <c r="C85">
+        <f>+$C$2*EXP(-L/R_gas/$B85-MW*g*$A98/$C$1/R_gas)</f>
+        <v>29.534185050840104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <f>1/8*(SQRT((4*a*$B86-k)^2+16*f*(b)^2)- 4*a*$B86 + k)</f>
+        <v>21.949154883977826</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="4"/>
+        <v>830</v>
+      </c>
+      <c r="C86">
+        <f>+$C$2*EXP(-L/R_gas/$B86-MW*g*$A99/$C$1/R_gas)</f>
+        <v>30.748401062480934</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <f>1/8*(SQRT((4*a*$B87-k)^2+16*f*(b)^2)- 4*a*$B87 + k)</f>
+        <v>21.689596338368574</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="4"/>
+        <v>840</v>
+      </c>
+      <c r="C87">
+        <f>+$C$2*EXP(-L/R_gas/$B87-MW*g*$A100/$C$1/R_gas)</f>
+        <v>31.98325527581121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <f>1/8*(SQRT((4*a*$B88-k)^2+16*f*(b)^2)- 4*a*$B88 + k)</f>
+        <v>21.436085212214948</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="C88">
+        <f>+$C$2*EXP(-L/R_gas/$B88-MW*g*$A101/$C$1/R_gas)</f>
+        <v>33.238300913493021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <f>1/8*(SQRT((4*a*$B89-k)^2+16*f*(b)^2)- 4*a*$B89 + k)</f>
+        <v>21.188413254804345</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="4"/>
+        <v>860</v>
+      </c>
+      <c r="C89">
+        <f>+$C$2*EXP(-L/R_gas/$B89-MW*g*$A102/$C$1/R_gas)</f>
+        <v>34.513088850799591</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <f>1/8*(SQRT((4*a*$B90-k)^2+16*f*(b)^2)- 4*a*$B90 + k)</f>
+        <v>20.946381639254923</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="4"/>
+        <v>870</v>
+      </c>
+      <c r="C90">
+        <f>+$C$2*EXP(-L/R_gas/$B90-MW*g*$A103/$C$1/R_gas)</f>
+        <v>35.807168395378731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <f>1/8*(SQRT((4*a*$B91-k)^2+16*f*(b)^2)- 4*a*$B91 + k)</f>
+        <v>20.709800437042759</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="4"/>
+        <v>880</v>
+      </c>
+      <c r="C91">
+        <f>+$C$2*EXP(-L/R_gas/$B91-MW*g*$A104/$C$1/R_gas)</f>
+        <v>37.120088015030625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <f>1/8*(SQRT((4*a*$B92-k)^2+16*f*(b)^2)- 4*a*$B92 + k)</f>
+        <v>20.478488127191213</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="4"/>
+        <v>890</v>
+      </c>
+      <c r="C92">
+        <f>+$C$2*EXP(-L/R_gas/$B92-MW*g*$A105/$C$1/R_gas)</f>
+        <v>38.451396015691238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <f>1/8*(SQRT((4*a*$B93-k)^2+16*f*(b)^2)- 4*a*$B93 + k)</f>
+        <v>20.252271137496336</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="C93">
+        <f>+$C$2*EXP(-L/R_gas/$B93-MW*g*$A106/$C$1/R_gas)</f>
+        <v>128.96444488405453</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <f>1/8*(SQRT((4*a*$B94-k)^2+16*f*(b)^2)- 4*a*$B94 + k)</f>
+        <v>20.030983415386345</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="4"/>
+        <v>910</v>
+      </c>
+      <c r="C94">
+        <f>+$C$2*EXP(-L/R_gas/$B94-MW*g*$A107/$C$1/R_gas)</f>
+        <v>131.90007670889921</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <f>1/8*(SQRT((4*a*$B95-k)^2+16*f*(b)^2)- 4*a*$B95 + k)</f>
+        <v>19.814466026201899</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="4"/>
+        <v>920</v>
+      </c>
+      <c r="C95">
+        <f>+$C$2*EXP(-L/R_gas/$B95-MW*g*$A108/$C$1/R_gas)</f>
+        <v>134.83654069906555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <f>1/8*(SQRT((4*a*$B96-k)^2+16*f*(b)^2)- 4*a*$B96 + k)</f>
+        <v>19.602566776890399</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="4"/>
+        <v>930</v>
+      </c>
+      <c r="C96">
+        <f>+$C$2*EXP(-L/R_gas/$B96-MW*g*$A109/$C$1/R_gas)</f>
+        <v>137.77312505347106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <f>1/8*(SQRT((4*a*$B97-k)^2+16*f*(b)^2)- 4*a*$B97 + k)</f>
+        <v>19.395139863257555</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="4"/>
+        <v>940</v>
+      </c>
+      <c r="C97">
+        <f>+$C$2*EXP(-L/R_gas/$B97-MW*g*$A110/$C$1/R_gas)</f>
+        <v>140.70914814315515</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <f>1/8*(SQRT((4*a*$B98-k)^2+16*f*(b)^2)- 4*a*$B98 + k)</f>
+        <v>19.192045539080027</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="4"/>
+        <v>950</v>
+      </c>
+      <c r="C98">
+        <f>+$C$2*EXP(-L/R_gas/$B98-MW*g*$A111/$C$1/R_gas)</f>
+        <v>143.64395753984391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <f>1/8*(SQRT((4*a*$B99-k)^2+16*f*(b)^2)- 4*a*$B99 + k)</f>
+        <v>18.993149805520261</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="C99">
+        <f>+$C$2*EXP(-L/R_gas/$B99-MW*g*$A112/$C$1/R_gas)</f>
+        <v>146.57692906005221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <f>1/8*(SQRT((4*a*$B100-k)^2+16*f*(b)^2)- 4*a*$B100 + k)</f>
+        <v>18.798324119402423</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="4"/>
+        <v>970</v>
+      </c>
+      <c r="C100">
+        <f>+$C$2*EXP(-L/R_gas/$B100-MW*g*$A113/$C$1/R_gas)</f>
+        <v>149.50746582625578</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <f>1/8*(SQRT((4*a*$B101-k)^2+16*f*(b)^2)- 4*a*$B101 + k)</f>
+        <v>18.607445119040676</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="4"/>
+        <v>980</v>
+      </c>
+      <c r="C101">
+        <f>+$C$2*EXP(-L/R_gas/$B101-MW*g*$A114/$C$1/R_gas)</f>
+        <v>152.43499734640253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <f>1/8*(SQRT((4*a*$B102-k)^2+16*f*(b)^2)- 4*a*$B102 + k)</f>
+        <v>18.42039436639061</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="4"/>
+        <v>990</v>
+      </c>
+      <c r="C102">
+        <f>+$C$2*EXP(-L/R_gas/$B102-MW*g*$A115/$C$1/R_gas)</f>
+        <v>155.3589786128027</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <f>1/8*(SQRT((4*a*$B103-k)^2+16*f*(b)^2)- 4*a*$B103 + k)</f>
+        <v>18.237058104415155</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C103">
+        <f>+$C$2*EXP(-L/R_gas/$B103-MW*g*$A116/$C$1/R_gas)</f>
+        <v>158.27888922123049</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <f>1/8*(SQRT((4*a*$B104-k)^2+16*f*(b)^2)- 4*a*$B104 + k)</f>
+        <v>18.057327028620875</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="4"/>
+        <v>1010</v>
+      </c>
+      <c r="C104">
+        <f>+$C$2*EXP(-L/R_gas/$B104-MW*g*$A117/$C$1/R_gas)</f>
+        <v>161.19423251088793</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <f>1/8*(SQRT((4*a*$B105-k)^2+16*f*(b)^2)- 4*a*$B105 + k)</f>
+        <v>17.881096071818774</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="4"/>
+        <v>1020</v>
+      </c>
+      <c r="C105">
+        <f>+$C$2*EXP(-L/R_gas/$B105-MW*g*$A118/$C$1/R_gas)</f>
+        <v>164.10453472571976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="C1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30.75" thickBot="1">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30.75" thickBot="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <f>1/8*(SQRT((4*a*$B4-k)^2+16*f*b^2)- 4*a*$B4 + k)</f>
+        <v>192.66321138802158</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f>+$C$2*EXP(-L/R_gas/$B4-MW*g*$A17/$C$1/R_gas)</f>
+        <v>5.3680822324516295E-19</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <f>1/8*(SQRT((4*a*$B5-k)^2+16*f*b^2)- 4*a*$B5 + k)</f>
+        <v>167.71360047646823</v>
+      </c>
+      <c r="B5">
+        <f>+$B4+$B$2</f>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f>+$C$2*EXP(-L/R_gas/$B5-MW*g*$A18/$C$1/R_gas)</f>
+        <v>1.6216735033162717E-8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>462</v>
+      </c>
+      <c r="F5" s="1">
+        <f>273+$E5</f>
+        <v>735</v>
+      </c>
+      <c r="G5" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="H5">
+        <v>4000</v>
+      </c>
+      <c r="I5">
+        <v>15326</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <f>1/8*(SQRT((4*a*$B6-k)^2+16*f*b^2)- 4*a*$B6 + k)</f>
+        <v>144.53781974919286</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B69" si="0">+$B5+$B$2</f>
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <f>+$C$2*EXP(-L/R_gas/$B6-MW*g*$A19/$C$1/R_gas)</f>
+        <v>5.2517663539966915E-5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>424</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F22" si="1">273+$E6</f>
+        <v>697</v>
+      </c>
+      <c r="G6" s="1">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="H6">
+        <v>8.3140000000000001</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <f>1/8*(SQRT((4*a*$B7-k)^2+16*f*b^2)- 4*a*$B7 + k)</f>
+        <v>123.50490807415484</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <f>+$C$2*EXP(-L/R_gas/$B7-MW*g*$A20/$C$1/R_gas)</f>
+        <v>3.0582052653005606E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>385</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>658</v>
+      </c>
+      <c r="G7" s="1">
+        <v>47.39</v>
+      </c>
+      <c r="H7">
+        <v>43.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <f>1/8*(SQRT((4*a*$B8-k)^2+16*f*b^2)- 4*a*$B8 + k)</f>
+        <v>104.93114951377434</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <f>+$C$2*EXP(-L/R_gas/$B8-MW*g*$A21/$C$1/R_gas)</f>
+        <v>3.5556886247514866E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>348</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>621</v>
+      </c>
+      <c r="G8" s="1">
+        <v>33.04</v>
+      </c>
+      <c r="H8">
+        <v>3.71</v>
+      </c>
+      <c r="I8">
+        <f>8.87</f>
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <f>1/8*(SQRT((4*a*$B9-k)^2+16*f*b^2)- 4*a*$B9 + k)</f>
+        <v>88.994286060147886</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <f>+$C$2*EXP(-L/R_gas/$B9-MW*g*$A22/$C$1/R_gas)</f>
+        <v>0.18428907210174089</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>306</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>579</v>
+      </c>
+      <c r="G9" s="1">
+        <v>22.52</v>
+      </c>
+      <c r="H9">
+        <v>700</v>
+      </c>
+      <c r="I9">
+        <v>-500</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <f>1/8*(SQRT((4*a*$B10-k)^2+16*f*b^2)- 4*a*$B10 + k)</f>
+        <v>75.673953347730546</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <f>+$C$2*EXP(-L/R_gas/$B10-MW*g*$A23/$C$1/R_gas)</f>
+        <v>0.60102931019579098</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>264</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>537</v>
+      </c>
+      <c r="G10" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="H10">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <f>1/8*(SQRT((4*a*$B11-k)^2+16*f*b^2)- 4*a*$B11 + k)</f>
+        <v>64.758922587068284</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <f>+$C$2*EXP(-L/R_gas/$B11-MW*g*$A24/$C$1/R_gas)</f>
+        <v>1.4658686975146584</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>222</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.8510000000000009</v>
+      </c>
+      <c r="H11">
+        <f>f*g*MW/R_gas</f>
+        <v>3.2396680298292035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <f>1/8*(SQRT((4*a*$B12-k)^2+16*f*b^2)- 4*a*$B12 + k)</f>
+        <v>55.915848766576957</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <f>+$C$2*EXP(-L/R_gas/$B12-MW*g*$A25/$C$1/R_gas)</f>
+        <v>2.9433555440389396</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>180</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.9169999999999998</v>
+      </c>
+      <c r="H12">
+        <f>L*u/R_gas</f>
+        <v>481.11618955977866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <f>1/8*(SQRT((4*a*$B13-k)^2+16*f*b^2)- 4*a*$B13 + k)</f>
+        <v>48.77436334207782</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f>+$C$2*EXP(-L/R_gas/$B13-MW*g*$A26/$C$1/R_gas)</f>
+        <v>5.1551927752492848</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>143</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.5009999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <f>1/8*(SQRT((4*a*$B14-k)^2+16*f*b^2)- 4*a*$B14 + k)</f>
+        <v>42.989039613171769</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <f>+$C$2*EXP(-L/R_gas/$B14-MW*g*$A27/$C$1/R_gas)</f>
+        <v>8.171832856850159</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1">
+        <v>110</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.9790000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <f>1/8*(SQRT((4*a*$B15-k)^2+16*f*b^2)- 4*a*$B15 + k)</f>
+        <v>38.268295319348908</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <f>+$C$2*EXP(-L/R_gas/$B15-MW*g*$A28/$C$1/R_gas)</f>
+        <v>12.016390544450802</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0660000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <f>1/8*(SQRT((4*a*$B16-k)^2+16*f*b^2)- 4*a*$B16 + k)</f>
+        <v>34.379500824585364</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C16">
+        <f>+$C$2*EXP(-L/R_gas/$B16-MW*g*$A29/$C$1/R_gas)</f>
+        <v>16.674101209886661</v>
+      </c>
+      <c r="D16" s="1">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.53139999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <f>1/8*(SQRT((4*a*$B17-k)^2+16*f*b^2)- 4*a*$B17 + k)</f>
+        <v>31.142473773848366</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <f>+$C$2*EXP(-L/R_gas/$B17-MW*g*$A30/$C$1/R_gas)</f>
+        <v>22.102928159666376</v>
+      </c>
+      <c r="D17" s="1">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3">
+        <f>-10</f>
+        <v>-10</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.23569999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <f>1/8*(SQRT((4*a*$B18-k)^2+16*f*b^2)- 4*a*$B18 + k)</f>
+        <v>28.419451542105946</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <f>+$C$2*EXP(-L/R_gas/$B18-MW*g*$A31/$C$1/R_gas)</f>
+        <v>28.24311412748121</v>
+      </c>
+      <c r="D18" s="1">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-30</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.7650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <f>1/8*(SQRT((4*a*$B19-k)^2+16*f*b^2)- 4*a*$B19 + k)</f>
+        <v>26.105399542714423</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C19">
+        <f>+$C$2*EXP(-L/R_gas/$B19-MW*g*$A32/$C$1/R_gas)</f>
+        <v>35.024870589115203</v>
+      </c>
+      <c r="D19" s="1">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-43</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <f>1/8*(SQRT((4*a*$B20-k)^2+16*f*b^2)- 4*a*$B20 + k)</f>
+        <v>24.119977132390773</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="C20">
+        <f>+$C$2*EXP(-L/R_gas/$B20-MW*g*$A33/$C$1/R_gas)</f>
+        <v>42.374131980585197</v>
+      </c>
+      <c r="D20" s="1">
+        <v>80</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-76</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.7600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <f>1/8*(SQRT((4*a*$B21-k)^2+16*f*b^2)- 4*a*$B21 + k)</f>
+        <v>22.401320253639199</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C21">
+        <f>+$C$2*EXP(-L/R_gas/$B21-MW*g*$A34/$C$1/R_gas)</f>
+        <v>50.216619494217149</v>
+      </c>
+      <c r="D21" s="1">
+        <v>90</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-104</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.7359999999999997E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <f>1/8*(SQRT((4*a*$B22-k)^2+16*f*b^2)- 4*a*$B22 + k)</f>
+        <v>20.901384396710768</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="C22">
+        <f>+$C$2*EXP(-L/R_gas/$B22-MW*g*$A35/$C$1/R_gas)</f>
+        <v>58.480553984502798</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-112</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.6599999999999999E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <f>1/8*(SQRT((4*a*$B23-k)^2+16*f*b^2)- 4*a*$B23 + k)</f>
+        <v>19.582505563275447</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="C23">
+        <f>+$C$2*EXP(-L/R_gas/$B23-MW*g*$A36/$C$1/R_gas)</f>
+        <v>67.09834803772479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <f>1/8*(SQRT((4*a*$B24-k)^2+16*f*b^2)- 4*a*$B24 + k)</f>
+        <v>18.414870974413418</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="C24">
+        <f>+$C$2*EXP(-L/R_gas/$B24-MW*g*$A37/$C$1/R_gas)</f>
+        <v>76.007557516047598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <f>1/8*(SQRT((4*a*$B25-k)^2+16*f*b^2)- 4*a*$B25 + k)</f>
+        <v>17.374655575454426</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="C25">
+        <f>+$C$2*EXP(-L/R_gas/$B25-MW*g*$A38/$C$1/R_gas)</f>
+        <v>85.151314222670536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <f>1/8*(SQRT((4*a*$B26-k)^2+16*f*b^2)- 4*a*$B26 + k)</f>
+        <v>16.442641995052043</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="C26">
+        <f>+$C$2*EXP(-L/R_gas/$B26-MW*g*$A39/$C$1/R_gas)</f>
+        <v>94.478407304512757</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <f>1/8*(SQRT((4*a*$B27-k)^2+16*f*b^2)- 4*a*$B27 + k)</f>
+        <v>15.603191281816635</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="C27">
+        <f>+$C$2*EXP(-L/R_gas/$B27-MW*g*$A40/$C$1/R_gas)</f>
+        <v>103.94313623178964</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <f>1/8*(SQRT((4*a*$B28-k)^2+16*f*b^2)- 4*a*$B28 + k)</f>
+        <v>14.843469006473811</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="C28">
+        <f>+$C$2*EXP(-L/R_gas/$B28-MW*g*$A41/$C$1/R_gas)</f>
+        <v>113.50502317380806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <f>1/8*(SQRT((4*a*$B29-k)^2+16*f*b^2)- 4*a*$B29 + k)</f>
+        <v>14.152858345292657</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="C29">
+        <f>+$C$2*EXP(-L/R_gas/$B29-MW*g*$A42/$C$1/R_gas)</f>
+        <v>123.12844617906175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <f>1/8*(SQRT((4*a*$B30-k)^2+16*f*b^2)- 4*a*$B30 + k)</f>
+        <v>13.522511057039651</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="C30">
+        <f>+$C$2*EXP(-L/R_gas/$B30-MW*g*$A43/$C$1/R_gas)</f>
+        <v>132.7822351436667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <f>1/8*(SQRT((4*a*$B31-k)^2+16*f*b^2)- 4*a*$B31 + k)</f>
+        <v>12.945000960561458</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="C31">
+        <f>+$C$2*EXP(-L/R_gas/$B31-MW*g*$A44/$C$1/R_gas)</f>
+        <v>142.43925853638783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <f>1/8*(SQRT((4*a*$B32-k)^2+16*f*b^2)- 4*a*$B32 + k)</f>
+        <v>12.41405423645125</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="C32">
+        <f>+$C$2*EXP(-L/R_gas/$B32-MW*g*$A45/$C$1/R_gas)</f>
+        <v>152.07601889469953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <f>1/8*(SQRT((4*a*$B33-k)^2+16*f*b^2)- 4*a*$B33 + k)</f>
+        <v>11.924337791215351</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="C33">
+        <f>+$C$2*EXP(-L/R_gas/$B33-MW*g*$A46/$C$1/R_gas)</f>
+        <v>161.67226814109361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <f>1/8*(SQRT((4*a*$B34-k)^2+16*f*b^2)- 4*a*$B34 + k)</f>
+        <v>11.471291869015033</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="C34">
+        <f>+$C$2*EXP(-L/R_gas/$B34-MW*g*$A47/$C$1/R_gas)</f>
+        <v>171.2106489691073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <f>1/8*(SQRT((4*a*$B35-k)^2+16*f*b^2)- 4*a*$B35 + k)</f>
+        <v>11.050996657345479</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="C35">
+        <f>+$C$2*EXP(-L/R_gas/$B35-MW*g*$A48/$C$1/R_gas)</f>
+        <v>180.67636529905633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <f>1/8*(SQRT((4*a*$B36-k)^2+16*f*b^2)- 4*a*$B36 + k)</f>
+        <v>10.660065215209556</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="C36">
+        <f>+$C$2*EXP(-L/R_gas/$B36-MW*g*$A49/$C$1/R_gas)</f>
+        <v>190.05688265201562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <f>1/8*(SQRT((4*a*$B37-k)^2+16*f*b^2)- 4*a*$B37 + k)</f>
+        <v>10.295556938694403</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="C37">
+        <f>+$C$2*EXP(-L/R_gas/$B37-MW*g*$A50/$C$1/R_gas)</f>
+        <v>199.34165790908941</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <f>1/8*(SQRT((4*a*$B38-k)^2+16*f*b^2)- 4*a*$B38 + k)</f>
+        <v>9.954907167456156</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="C38">
+        <f>+$C$2*EXP(-L/R_gas/$B38-MW*g*$A51/$C$1/R_gas)</f>
+        <v>208.52189707552893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <f>1/8*(SQRT((4*a*$B39-k)^2+16*f*b^2)- 4*a*$B39 + k)</f>
+        <v>9.6358695656555824</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="C39">
+        <f>+$C$2*EXP(-L/R_gas/$B39-MW*g*$A52/$C$1/R_gas)</f>
+        <v>217.59033918768543</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <f>1/8*(SQRT((4*a*$B40-k)^2+16*f*b^2)- 4*a*$B40 + k)</f>
+        <v>9.3364686807607313</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="C40">
+        <f>+$C$2*EXP(-L/R_gas/$B40-MW*g*$A53/$C$1/R_gas)</f>
+        <v>226.5410642659435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <f>1/8*(SQRT((4*a*$B41-k)^2+16*f*b^2)- 4*a*$B41 + k)</f>
+        <v>9.054960663326824</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="C41">
+        <f>+$C$2*EXP(-L/R_gas/$B41-MW*g*$A54/$C$1/R_gas)</f>
+        <v>235.3693231450429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <f>1/8*(SQRT((4*a*$B42-k)^2+16*f*b^2)- 4*a*$B42 + k)</f>
+        <v>8.7898005705261539</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="C42">
+        <f>+$C$2*EXP(-L/R_gas/$B42-MW*g*$A55/$C$1/R_gas)</f>
+        <v>244.07138704615562</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <f>1/8*(SQRT((4*a*$B43-k)^2+16*f*b^2)- 4*a*$B43 + k)</f>
+        <v>8.5396150119984213</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="C43">
+        <f>+$C$2*EXP(-L/R_gas/$B43-MW*g*$A56/$C$1/R_gas)</f>
+        <v>252.64441485233252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <f>1/8*(SQRT((4*a*$B44-k)^2+16*f*b^2)- 4*a*$B44 + k)</f>
+        <v>8.303179154797931</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="C44">
+        <f>+$C$2*EXP(-L/R_gas/$B44-MW*g*$A57/$C$1/R_gas)</f>
+        <v>261.0863361829409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <f>1/8*(SQRT((4*a*$B45-k)^2+16*f*b^2)- 4*a*$B45 + k)</f>
+        <v>8.0793973040681522</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="C45">
+        <f>+$C$2*EXP(-L/R_gas/$B45-MW*g*$A58/$C$1/R_gas)</f>
+        <v>269.39574851481092</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <f>1/8*(SQRT((4*a*$B46-k)^2+16*f*b^2)- 4*a*$B46 + k)</f>
+        <v>7.8672864317220501</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="C46">
+        <f>+$C$2*EXP(-L/R_gas/$B46-MW*g*$A59/$C$1/R_gas)</f>
+        <v>277.5718267557645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <f>1/8*(SQRT((4*a*$B47-k)^2+16*f*b^2)- 4*a*$B47 + k)</f>
+        <v>7.6659621473793322</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="C47">
+        <f>+$C$2*EXP(-L/R_gas/$B47-MW*g*$A60/$C$1/R_gas)</f>
+        <v>285.61424383205679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <f>1/8*(SQRT((4*a*$B48-k)^2+16*f*b^2)- 4*a*$B48 + k)</f>
+        <v>7.474626701936586</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="C48">
+        <f>+$C$2*EXP(-L/R_gas/$B48-MW*g*$A61/$C$1/R_gas)</f>
+        <v>293.52310100023959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <f>1/8*(SQRT((4*a*$B49-k)^2+16*f*b^2)- 4*a*$B49 + k)</f>
+        <v>7.2925586903364774</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="C49">
+        <f>+$C$2*EXP(-L/R_gas/$B49-MW*g*$A62/$C$1/R_gas)</f>
+        <v>301.29886673313354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <f>1/8*(SQRT((4*a*$B50-k)^2+16*f*b^2)- 4*a*$B50 + k)</f>
+        <v>7.1191041808079945</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+      <c r="C50">
+        <f>+$C$2*EXP(-L/R_gas/$B50-MW*g*$A63/$C$1/R_gas)</f>
+        <v>308.94232315778089</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <f>1/8*(SQRT((4*a*$B51-k)^2+16*f*b^2)- 4*a*$B51 + k)</f>
+        <v>6.9536690464789217</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="C51">
+        <f>+$C$2*EXP(-L/R_gas/$B51-MW*g*$A64/$C$1/R_gas)</f>
+        <v>316.45451913973852</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <f>1/8*(SQRT((4*a*$B52-k)^2+16*f*b^2)- 4*a*$B52 + k)</f>
+        <v>6.7957123143938816</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="C52">
+        <f>+$C$2*EXP(-L/R_gas/$B52-MW*g*$A65/$C$1/R_gas)</f>
+        <v>323.83672921323256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <f>1/8*(SQRT((4*a*$B53-k)^2+16*f*b^2)- 4*a*$B53 + k)</f>
+        <v>6.6447403786307859</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="C53">
+        <f>+$C$2*EXP(-L/R_gas/$B53-MW*g*$A66/$C$1/R_gas)</f>
+        <v>331.0904176508285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <f>1/8*(SQRT((4*a*$B54-k)^2+16*f*b^2)- 4*a*$B54 + k)</f>
+        <v>6.500301949925074</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="C54">
+        <f>+$C$2*EXP(-L/R_gas/$B54-MW*g*$A67/$C$1/R_gas)</f>
+        <v>338.21720705023847</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <f>1/8*(SQRT((4*a*$B55-k)^2+16*f*b^2)- 4*a*$B55 + k)</f>
+        <v>6.3619836351967933</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="C55">
+        <f>+$C$2*EXP(-L/R_gas/$B55-MW*g*$A68/$C$1/R_gas)</f>
+        <v>345.21885089037346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <f>1/8*(SQRT((4*a*$B56-k)^2+16*f*b^2)- 4*a*$B56 + k)</f>
+        <v>6.2294060575786716</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+      <c r="C56">
+        <f>+$C$2*EXP(-L/R_gas/$B56-MW*g*$A69/$C$1/R_gas)</f>
+        <v>352.09720957476037</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <f>1/8*(SQRT((4*a*$B57-k)^2+16*f*b^2)- 4*a*$B57 + k)</f>
+        <v>6.1022204416933619</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="C57">
+        <f>+$C$2*EXP(-L/R_gas/$B57-MW*g*$A70/$C$1/R_gas)</f>
+        <v>358.85422953862491</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <f>1/8*(SQRT((4*a*$B58-k)^2+16*f*b^2)- 4*a*$B58 + k)</f>
+        <v>5.9801056006222097</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="C58">
+        <f>+$C$2*EXP(-L/R_gas/$B58-MW*g*$A71/$C$1/R_gas)</f>
+        <v>365.4919250473335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <f>1/8*(SQRT((4*a*$B59-k)^2+16*f*b^2)- 4*a*$B59 + k)</f>
+        <v>5.8627652707012885</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="C59">
+        <f>+$C$2*EXP(-L/R_gas/$B59-MW*g*$A72/$C$1/R_gas)</f>
+        <v>372.01236235902599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <f>1/8*(SQRT((4*a*$B60-k)^2+16*f*b^2)- 4*a*$B60 + k)</f>
+        <v>5.7499257483519841</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="C60">
+        <f>+$C$2*EXP(-L/R_gas/$B60-MW*g*$A73/$C$1/R_gas)</f>
+        <v>378.41764596402078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <f>1/8*(SQRT((4*a*$B61-k)^2+16*f*b^2)- 4*a*$B61 + k)</f>
+        <v>5.6413337898878808</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="C61">
+        <f>+$C$2*EXP(-L/R_gas/$B61-MW*g*$A74/$C$1/R_gas)</f>
+        <v>384.70990664843856</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <f>1/8*(SQRT((4*a*$B62-k)^2+16*f*b^2)- 4*a*$B62 + k)</f>
+        <v>5.5367547408942528</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>590</v>
+      </c>
+      <c r="C62">
+        <f>+$C$2*EXP(-L/R_gas/$B62-MW*g*$A75/$C$1/R_gas)</f>
+        <v>390.89129116018705</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <f>1/8*(SQRT((4*a*$B63-k)^2+16*f*b^2)- 4*a*$B63 + k)</f>
+        <v>5.4359708665157314</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="C63">
+        <f>+$C$2*EXP(-L/R_gas/$B63-MW*g*$A76/$C$1/R_gas)</f>
+        <v>396.96395328226373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <f>1/8*(SQRT((4*a*$B64-k)^2+16*f*b^2)- 4*a*$B64 + k)</f>
+        <v>5.3387798580009758</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="C64">
+        <f>+$C$2*EXP(-L/R_gas/$B64-MW*g*$A77/$C$1/R_gas)</f>
+        <v>402.93004614203568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <f>1/8*(SQRT((4*a*$B65-k)^2+16*f*b^2)- 4*a*$B65 + k)</f>
+        <v>5.2449934942341088</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="C65">
+        <f>+$C$2*EXP(-L/R_gas/$B65-MW*g*$A78/$C$1/R_gas)</f>
+        <v>408.7917156057631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <f>1/8*(SQRT((4*a*$B66-k)^2+16*f*b^2)- 4*a*$B66 + k)</f>
+        <v>5.1544364398621383</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="C66">
+        <f>+$C$2*EXP(-L/R_gas/$B66-MW*g*$A79/$C$1/R_gas)</f>
+        <v>414.55109462592043</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <f>1/8*(SQRT((4*a*$B67-k)^2+16*f*b^2)- 4*a*$B67 + k)</f>
+        <v>5.0669451640698071</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="C67">
+        <f>+$C$2*EXP(-L/R_gas/$B67-MW*g*$A80/$C$1/R_gas)</f>
+        <v>420.21029842470443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <f>1/8*(SQRT((4*a*$B68-k)^2+16*f*b^2)- 4*a*$B68 + k)</f>
+        <v>4.9823669661443546</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="C68">
+        <f>+$C$2*EXP(-L/R_gas/$B68-MW*g*$A81/$C$1/R_gas)</f>
+        <v>425.77142041122477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <f>1/8*(SQRT((4*a*$B69-k)^2+16*f*b^2)- 4*a*$B69 + k)</f>
+        <v>4.9005590957528966</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="C69">
+        <f>+$C$2*EXP(-L/R_gas/$B69-MW*g*$A82/$C$1/R_gas)</f>
+        <v>431.23652874213673</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <f>1/8*(SQRT((4*a*$B70-k)^2+16*f*b^2)- 4*a*$B70 + k)</f>
+        <v>4.8213879573930853</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70:B105" si="2">+$B69+$B$2</f>
+        <v>670</v>
+      </c>
+      <c r="C70">
+        <f>+$C$2*EXP(-L/R_gas/$B70-MW*g*$A83/$C$1/R_gas)</f>
+        <v>436.6076634462309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <f>1/8*(SQRT((4*a*$B71-k)^2+16*f*b^2)- 4*a*$B71 + k)</f>
+        <v>4.7447283897882926</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>680</v>
+      </c>
+      <c r="C71">
+        <f>+$C$2*EXP(-L/R_gas/$B71-MW*g*$A84/$C$1/R_gas)</f>
+        <v>441.88683404308222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <f>1/8*(SQRT((4*a*$B72-k)^2+16*f*b^2)- 4*a*$B72 + k)</f>
+        <v>4.670463012138498</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
+      <c r="C72">
+        <f>+$C$2*EXP(-L/R_gas/$B72-MW*g*$A85/$C$1/R_gas)</f>
+        <v>447.07601759411426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <f>1/8*(SQRT((4*a*$B73-k)^2+16*f*b^2)- 4*a*$B73 + k)</f>
+        <v>4.5984816301154297</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="C73">
+        <f>+$C$2*EXP(-L/R_gas/$B73-MW*g*$A86/$C$1/R_gas)</f>
+        <v>452.17715713182588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <f>1/8*(SQRT((4*a*$B74-k)^2+16*f*b^2)- 4*a*$B74 + k)</f>
+        <v>4.5286806953436098</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>710</v>
+      </c>
+      <c r="C74">
+        <f>+$C$2*EXP(-L/R_gas/$B74-MW*g*$A87/$C$1/R_gas)</f>
+        <v>457.19216041937182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <f>1/8*(SQRT((4*a*$B75-k)^2+16*f*b^2)- 4*a*$B75 + k)</f>
+        <v>4.4609628128403074</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="C75">
+        <f>+$C$2*EXP(-L/R_gas/$B75-MW*g*$A88/$C$1/R_gas)</f>
+        <v>462.12289899835559</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <f>1/8*(SQRT((4*a*$B76-k)^2+16*f*b^2)- 4*a*$B76 + k)</f>
+        <v>4.3952362915365484</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>730</v>
+      </c>
+      <c r="C76">
+        <f>+$C$2*EXP(-L/R_gas/$B76-MW*g*$A89/$C$1/R_gas)</f>
+        <v>466.97120748772045</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <f>1/8*(SQRT((4*a*$B77-k)^2+16*f*b^2)- 4*a*$B77 + k)</f>
+        <v>4.3314147335504458</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>740</v>
+      </c>
+      <c r="C77">
+        <f>+$C$2*EXP(-L/R_gas/$B77-MW*g*$A90/$C$1/R_gas)</f>
+        <v>471.73888310100665</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <f>1/8*(SQRT((4*a*$B78-k)^2+16*f*b^2)- 4*a*$B78 + k)</f>
+        <v>4.2694166583821698</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="C78">
+        <f>+$C$2*EXP(-L/R_gas/$B78-MW*g*$A91/$C$1/R_gas)</f>
+        <v>476.4276853531191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <f>1/8*(SQRT((4*a*$B79-k)^2+16*f*b^2)- 4*a*$B79 + k)</f>
+        <v>4.2091651586165426</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>760</v>
+      </c>
+      <c r="C79">
+        <f>+$C$2*EXP(-L/R_gas/$B79-MW*g*$A92/$C$1/R_gas)</f>
+        <v>481.03933593125095</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <f>1/8*(SQRT((4*a*$B80-k)^2+16*f*b^2)- 4*a*$B80 + k)</f>
+        <v>4.1505875841044144</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
+      <c r="C80">
+        <f>+$C$2*EXP(-L/R_gas/$B80-MW*g*$A93/$C$1/R_gas)</f>
+        <v>485.57551870747602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <f>1/8*(SQRT((4*a*$B81-k)^2+16*f*b^2)- 4*a*$B81 + k)</f>
+        <v>4.0936152519136613</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+      <c r="C81">
+        <f>+$C$2*EXP(-L/R_gas/$B81-MW*g*$A94/$C$1/R_gas)</f>
+        <v>490.03787987337444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <f>1/8*(SQRT((4*a*$B82-k)^2+16*f*b^2)- 4*a*$B82 + k)</f>
+        <v>4.038183179633279</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>790</v>
+      </c>
+      <c r="C82">
+        <f>+$C$2*EXP(-L/R_gas/$B82-MW*g*$A95/$C$1/R_gas)</f>
+        <v>494.42802817922131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <f>1/8*(SQRT((4*a*$B83-k)^2+16*f*b^2)- 4*a*$B83 + k)</f>
+        <v>3.9842298398730236</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="C83">
+        <f>+$C$2*EXP(-L/R_gas/$B83-MW*g*$A96/$C$1/R_gas)</f>
+        <v>498.74753526251476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <f>1/8*(SQRT((4*a*$B84-k)^2+16*f*b^2)- 4*a*$B84 + k)</f>
+        <v>3.9316969340181913</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
+      <c r="C84">
+        <f>+$C$2*EXP(-L/R_gas/$B84-MW*g*$A97/$C$1/R_gas)</f>
+        <v>502.99793605229934</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <f>1/8*(SQRT((4*a*$B85-k)^2+16*f*b^2)- 4*a*$B85 + k)</f>
+        <v>3.8805291835060416</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>820</v>
+      </c>
+      <c r="C85">
+        <f>+$C$2*EXP(-L/R_gas/$B85-MW*g*$A98/$C$1/R_gas)</f>
+        <v>507.18072923750248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <f>1/8*(SQRT((4*a*$B86-k)^2+16*f*b^2)- 4*a*$B86 + k)</f>
+        <v>3.8306741370622603</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>830</v>
+      </c>
+      <c r="C86">
+        <f>+$C$2*EXP(-L/R_gas/$B86-MW*g*$A99/$C$1/R_gas)</f>
+        <v>511.2973777887716</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <f>1/8*(SQRT((4*a*$B87-k)^2+16*f*b^2)- 4*a*$B87 + k)</f>
+        <v>3.7820819924934312</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+      <c r="C87">
+        <f>+$C$2*EXP(-L/R_gas/$B87-MW*g*$A100/$C$1/R_gas)</f>
+        <v>515.34930952478203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <f>1/8*(SQRT((4*a*$B88-k)^2+16*f*b^2)- 4*a*$B88 + k)</f>
+        <v>3.7347054317717721</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+      <c r="C88">
+        <f>+$C$2*EXP(-L/R_gas/$B88-MW*g*$A101/$C$1/R_gas)</f>
+        <v>519.33791771484641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <f>1/8*(SQRT((4*a*$B89-k)^2+16*f*b^2)- 4*a*$B89 + k)</f>
+        <v>3.6884994682702654</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>860</v>
+      </c>
+      <c r="C89">
+        <f>+$C$2*EXP(-L/R_gas/$B89-MW*g*$A102/$C$1/R_gas)</f>
+        <v>523.26456171087648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <f>1/8*(SQRT((4*a*$B90-k)^2+16*f*b^2)- 4*a*$B90 + k)</f>
+        <v>3.6434213051186362</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+      <c r="C90">
+        <f>+$C$2*EXP(-L/R_gas/$B90-MW*g*$A103/$C$1/R_gas)</f>
+        <v>527.13056760247503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <f>1/8*(SQRT((4*a*$B91-k)^2+16*f*b^2)- 4*a*$B91 + k)</f>
+        <v>3.5994302037495345</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>880</v>
+      </c>
+      <c r="C91">
+        <f>+$C$2*EXP(-L/R_gas/$B91-MW*g*$A104/$C$1/R_gas)</f>
+        <v>530.93722888976095</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <f>1/8*(SQRT((4*a*$B92-k)^2+16*f*b^2)- 4*a*$B92 + k)</f>
+        <v>3.5564873617865942</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>890</v>
+      </c>
+      <c r="C92">
+        <f>+$C$2*EXP(-L/R_gas/$B92-MW*g*$A105/$C$1/R_gas)</f>
+        <v>534.68580716923464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <f>1/8*(SQRT((4*a*$B93-k)^2+16*f*b^2)- 4*a*$B93 + k)</f>
+        <v>3.5145557995163017</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="C93">
+        <f>+$C$2*EXP(-L/R_gas/$B93-MW*g*$A106/$C$1/R_gas)</f>
+        <v>585.91910561763871</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <f>1/8*(SQRT((4*a*$B94-k)^2+16*f*b^2)- 4*a*$B94 + k)</f>
+        <v>3.473600254242001</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>910</v>
+      </c>
+      <c r="C94">
+        <f>+$C$2*EXP(-L/R_gas/$B94-MW*g*$A107/$C$1/R_gas)</f>
+        <v>589.37117861572926</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <f>1/8*(SQRT((4*a*$B95-k)^2+16*f*b^2)- 4*a*$B95 + k)</f>
+        <v>3.4335870818958938</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="C95">
+        <f>+$C$2*EXP(-L/R_gas/$B95-MW*g*$A108/$C$1/R_gas)</f>
+        <v>592.7678859559669</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <f>1/8*(SQRT((4*a*$B96-k)^2+16*f*b^2)- 4*a*$B96 + k)</f>
+        <v>3.3944841653290041</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>930</v>
+      </c>
+      <c r="C96">
+        <f>+$C$2*EXP(-L/R_gas/$B96-MW*g*$A109/$C$1/R_gas)</f>
+        <v>596.11049423644226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <f>1/8*(SQRT((4*a*$B97-k)^2+16*f*b^2)- 4*a*$B97 + k)</f>
+        <v>3.3562608287616058</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>940</v>
+      </c>
+      <c r="C97">
+        <f>+$C$2*EXP(-L/R_gas/$B97-MW*g*$A110/$C$1/R_gas)</f>
+        <v>599.40023408093543</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <f>1/8*(SQRT((4*a*$B98-k)^2+16*f*b^2)- 4*a*$B98 + k)</f>
+        <v>3.318887757912762</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="C98">
+        <f>+$C$2*EXP(-L/R_gas/$B98-MW*g*$A111/$C$1/R_gas)</f>
+        <v>602.63830127548704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <f>1/8*(SQRT((4*a*$B99-k)^2+16*f*b^2)- 4*a*$B99 + k)</f>
+        <v>3.2823369253803776</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+      <c r="C99">
+        <f>+$C$2*EXP(-L/R_gas/$B99-MW*g*$A112/$C$1/R_gas)</f>
+        <v>605.8258578713785</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <f>1/8*(SQRT((4*a*$B100-k)^2+16*f*b^2)- 4*a*$B100 + k)</f>
+        <v>3.246581520865675</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>970</v>
+      </c>
+      <c r="C100">
+        <f>+$C$2*EXP(-L/R_gas/$B100-MW*g*$A113/$C$1/R_gas)</f>
+        <v>608.96403325484323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <f>1/8*(SQRT((4*a*$B101-k)^2+16*f*b^2)- 4*a*$B101 + k)</f>
+        <v>3.2115958858880731</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>980</v>
+      </c>
+      <c r="C101">
+        <f>+$C$2*EXP(-L/R_gas/$B101-MW*g*$A114/$C$1/R_gas)</f>
+        <v>612.05392518393217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <f>1/8*(SQRT((4*a*$B102-k)^2+16*f*b^2)- 4*a*$B102 + k)</f>
+        <v>3.1773554526509997</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+      <c r="C102">
+        <f>+$C$2*EXP(-L/R_gas/$B102-MW*g*$A115/$C$1/R_gas)</f>
+        <v>615.09660079304706</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <f>1/8*(SQRT((4*a*$B103-k)^2+16*f*b^2)- 4*a*$B103 + k)</f>
+        <v>3.1438366867571403</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="C103">
+        <f>+$C$2*EXP(-L/R_gas/$B103-MW*g*$A116/$C$1/R_gas)</f>
+        <v>618.09309756572316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <f>1/8*(SQRT((4*a*$B104-k)^2+16*f*b^2)- 4*a*$B104 + k)</f>
+        <v>3.1110170334936811</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>1010</v>
+      </c>
+      <c r="C104">
+        <f>+$C$2*EXP(-L/R_gas/$B104-MW*g*$A117/$C$1/R_gas)</f>
+        <v>621.0444242762992</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <f>1/8*(SQRT((4*a*$B105-k)^2+16*f*b^2)- 4*a*$B105 + k)</f>
+        <v>3.0788748674292492</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>1020</v>
+      </c>
+      <c r="C105">
+        <f>+$C$2*EXP(-L/R_gas/$B105-MW*g*$A118/$C$1/R_gas)</f>
+        <v>623.95156190115915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>